--- a/media/samohvalov_download_fiz.xlsx
+++ b/media/samohvalov_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D90B8-4D5B-2541-9C2A-39EFD401DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D1641-603D-264C-B8D3-099F14A3A0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -184,19 +184,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
@@ -409,6 +396,12 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -660,32 +653,32 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -699,16 +692,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,16 +770,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -801,12 +794,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,7 +824,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,19 +845,19 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,34 +869,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,33 +905,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,23 +920,62 @@
     <xf numFmtId="164" fontId="8" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1477,28 +1476,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N244"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232:N248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="7.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="41" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="24" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="6" style="16" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="42" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="17" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" style="17" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="16" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="41"/>
+    <col min="13" max="13" width="10.1640625" style="43" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="44" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="19">
@@ -1533,14 +1532,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="83"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A3" s="12"/>
@@ -1553,14 +1552,14 @@
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A4" s="12"/>
@@ -1588,14 +1587,14 @@
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
     </row>
     <row r="6" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A6" s="12"/>
@@ -1614,83 +1613,85 @@
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="C7" s="39"/>
-      <c r="D7" s="94" t="s">
+      <c r="A7" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="40"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="M8" s="45">
+      <c r="M8" s="43">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="47" customFormat="1" ht="112">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:14" s="45" customFormat="1" ht="112">
+      <c r="A9" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="76" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
@@ -1698,15 +1699,15 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
@@ -1714,15 +1715,15 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
@@ -1730,31 +1731,31 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
@@ -1762,15 +1763,15 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
@@ -1778,31 +1779,31 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
@@ -1810,31 +1811,31 @@
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="3"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="3"/>
       <c r="N19" s="2"/>
     </row>
@@ -1842,15 +1843,15 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="3"/>
       <c r="N20" s="2"/>
     </row>
@@ -1858,15 +1859,15 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
@@ -1875,14 +1876,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="3"/>
       <c r="N22" s="2"/>
     </row>
@@ -1890,15 +1891,15 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
     </row>
@@ -1906,15 +1907,15 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="3"/>
       <c r="N24" s="2"/>
     </row>
@@ -1922,15 +1923,15 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="3"/>
       <c r="N25" s="2"/>
     </row>
@@ -1938,15 +1939,15 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="3"/>
       <c r="N26" s="2"/>
     </row>
@@ -1954,15 +1955,15 @@
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="3"/>
       <c r="N27" s="2"/>
     </row>
@@ -1970,15 +1971,15 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="3"/>
       <c r="N28" s="2"/>
     </row>
@@ -1986,15 +1987,15 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="3"/>
       <c r="N29" s="2"/>
     </row>
@@ -2002,15 +2003,15 @@
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="3"/>
       <c r="N30" s="2"/>
     </row>
@@ -2018,15 +2019,15 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="3"/>
       <c r="N31" s="2"/>
     </row>
@@ -2034,15 +2035,15 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2"/>
     </row>
@@ -2050,15 +2051,15 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="3"/>
       <c r="N33" s="2"/>
     </row>
@@ -2066,15 +2067,15 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="3"/>
       <c r="N34" s="2"/>
     </row>
@@ -2082,15 +2083,15 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="3"/>
       <c r="N35" s="2"/>
     </row>
@@ -2098,15 +2099,15 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
     </row>
@@ -2114,15 +2115,15 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="3"/>
       <c r="N37" s="2"/>
     </row>
@@ -2130,15 +2131,15 @@
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="3"/>
       <c r="N38" s="2"/>
     </row>
@@ -2146,15 +2147,15 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
       <c r="M39" s="3"/>
       <c r="N39" s="2"/>
     </row>
@@ -2162,15 +2163,15 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="3"/>
       <c r="N40" s="2"/>
     </row>
@@ -2178,15 +2179,15 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="3"/>
       <c r="N41" s="2"/>
     </row>
@@ -2194,15 +2195,15 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2"/>
     </row>
@@ -2210,15 +2211,15 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="3"/>
       <c r="N43" s="2"/>
     </row>
@@ -2226,15 +2227,15 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="3"/>
       <c r="N44" s="2"/>
     </row>
@@ -2242,15 +2243,15 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="54"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
     </row>
@@ -2258,15 +2259,15 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
       <c r="M46" s="3"/>
       <c r="N46" s="2"/>
     </row>
@@ -2274,15 +2275,15 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="3"/>
       <c r="N47" s="2"/>
     </row>
@@ -2290,15 +2291,15 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="3"/>
       <c r="N48" s="2"/>
     </row>
@@ -2306,15 +2307,15 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="3"/>
       <c r="N49" s="2"/>
     </row>
@@ -2322,15 +2323,15 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="3"/>
       <c r="N50" s="2"/>
     </row>
@@ -2338,15 +2339,15 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="3"/>
       <c r="N51" s="2"/>
     </row>
@@ -2354,15 +2355,15 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="3"/>
       <c r="N52" s="2"/>
     </row>
@@ -2370,15 +2371,15 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="52"/>
       <c r="M53" s="3"/>
       <c r="N53" s="2"/>
     </row>
@@ -2386,15 +2387,15 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="52"/>
       <c r="M54" s="3"/>
       <c r="N54" s="2"/>
     </row>
@@ -2402,15 +2403,15 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="52"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2"/>
     </row>
@@ -2418,15 +2419,15 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="54"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="52"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2"/>
     </row>
@@ -2434,15 +2435,15 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="52"/>
       <c r="M57" s="3"/>
       <c r="N57" s="2"/>
     </row>
@@ -2450,15 +2451,15 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="52"/>
       <c r="M58" s="3"/>
       <c r="N58" s="2"/>
     </row>
@@ -2466,15 +2467,15 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="51"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="54"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="52"/>
       <c r="M59" s="3"/>
       <c r="N59" s="2"/>
     </row>
@@ -2482,15 +2483,15 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="54"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="52"/>
       <c r="M60" s="3"/>
       <c r="N60" s="2"/>
     </row>
@@ -2498,15 +2499,15 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="51"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="54"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="52"/>
       <c r="M61" s="3"/>
       <c r="N61" s="2"/>
     </row>
@@ -2514,15 +2515,15 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="52"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2"/>
     </row>
@@ -2530,15 +2531,15 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="51"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
       <c r="M63" s="3"/>
       <c r="N63" s="2"/>
     </row>
@@ -2546,15 +2547,15 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="54"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
       <c r="M64" s="3"/>
       <c r="N64" s="2"/>
     </row>
@@ -2562,15 +2563,15 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="54"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
       <c r="M65" s="3"/>
       <c r="N65" s="2"/>
     </row>
@@ -2578,15 +2579,15 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="54"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
       <c r="M66" s="3"/>
       <c r="N66" s="2"/>
     </row>
@@ -2594,15 +2595,15 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="54"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
       <c r="M67" s="3"/>
       <c r="N67" s="2"/>
     </row>
@@ -2610,15 +2611,15 @@
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="51"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="54"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
       <c r="M68" s="3"/>
       <c r="N68" s="2"/>
     </row>
@@ -2626,15 +2627,15 @@
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="51"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="54"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
       <c r="M69" s="3"/>
       <c r="N69" s="2"/>
     </row>
@@ -2642,15 +2643,15 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="51"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="49"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="54"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
       <c r="M70" s="3"/>
       <c r="N70" s="5"/>
     </row>
@@ -2658,15 +2659,15 @@
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="51"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="54"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="52"/>
       <c r="M71" s="3"/>
       <c r="N71" s="2"/>
     </row>
@@ -2674,15 +2675,15 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="51"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="54"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
       <c r="M72" s="3"/>
       <c r="N72" s="2"/>
     </row>
@@ -2690,15 +2691,15 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="51"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="54"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
       <c r="M73" s="3"/>
       <c r="N73" s="2"/>
     </row>
@@ -2706,15 +2707,15 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="51"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="54"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
       <c r="M74" s="3"/>
       <c r="N74" s="2"/>
     </row>
@@ -2722,15 +2723,15 @@
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="54"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="52"/>
       <c r="M75" s="3"/>
       <c r="N75" s="2"/>
     </row>
@@ -2738,79 +2739,79 @@
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="54"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="52"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="58"/>
+      <c r="N76" s="56"/>
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="54"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="52"/>
       <c r="M77" s="3"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" s="1" customFormat="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="51"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="49"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="54"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="52"/>
       <c r="M78" s="3"/>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" s="1" customFormat="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="51"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="54"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="52"/>
       <c r="M79" s="3"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" s="1" customFormat="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="51"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="49"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
       <c r="M80" s="3"/>
       <c r="N80" s="2"/>
     </row>
@@ -2818,31 +2819,31 @@
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="51"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="49"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="54"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="52"/>
       <c r="M81" s="3"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" s="1" customFormat="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="51"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="54"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="52"/>
       <c r="M82" s="3"/>
       <c r="N82" s="2"/>
     </row>
@@ -2850,15 +2851,15 @@
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="51"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="54"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="52"/>
       <c r="M83" s="3"/>
       <c r="N83" s="2"/>
     </row>
@@ -2866,15 +2867,15 @@
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="51"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="54"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="52"/>
       <c r="M84" s="3"/>
       <c r="N84" s="2"/>
     </row>
@@ -2882,15 +2883,15 @@
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="51"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="49"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="54"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="52"/>
       <c r="M85" s="3"/>
       <c r="N85" s="2"/>
     </row>
@@ -2898,15 +2899,15 @@
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="51"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="54"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="52"/>
       <c r="M86" s="3"/>
       <c r="N86" s="2"/>
     </row>
@@ -2914,15 +2915,15 @@
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="49"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="54"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="52"/>
       <c r="M87" s="3"/>
       <c r="N87" s="2"/>
     </row>
@@ -2930,15 +2931,15 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="49"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="54"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="52"/>
       <c r="M88" s="3"/>
       <c r="N88" s="2"/>
     </row>
@@ -2946,15 +2947,15 @@
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="54"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="52"/>
       <c r="M89" s="3"/>
       <c r="N89" s="2"/>
     </row>
@@ -2962,15 +2963,15 @@
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="51"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="49"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="54"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="52"/>
       <c r="M90" s="3"/>
       <c r="N90" s="2"/>
     </row>
@@ -2978,15 +2979,15 @@
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="51"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="54"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
       <c r="M91" s="3"/>
       <c r="N91" s="2"/>
     </row>
@@ -2994,15 +2995,15 @@
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="51"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="49"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="54"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
       <c r="M92" s="3"/>
       <c r="N92" s="2"/>
     </row>
@@ -3010,15 +3011,15 @@
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="51"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="49"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="54"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
       <c r="M93" s="3"/>
       <c r="N93" s="2"/>
     </row>
@@ -3026,15 +3027,15 @@
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="51"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="49"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="54"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="52"/>
       <c r="M94" s="3"/>
       <c r="N94" s="2"/>
     </row>
@@ -3042,15 +3043,15 @@
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="51"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="49"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="54"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="52"/>
       <c r="M95" s="3"/>
       <c r="N95" s="2"/>
     </row>
@@ -3058,15 +3059,15 @@
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="51"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="49"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="52"/>
       <c r="M96" s="3"/>
       <c r="N96" s="2"/>
     </row>
@@ -3074,31 +3075,31 @@
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="51"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="49"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="54"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="52"/>
       <c r="M97" s="3"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" s="1" customFormat="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="51"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="52"/>
       <c r="M98" s="3"/>
       <c r="N98" s="2"/>
     </row>
@@ -3106,15 +3107,15 @@
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="51"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="49"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="54"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="52"/>
       <c r="M99" s="3"/>
       <c r="N99" s="2"/>
     </row>
@@ -3122,15 +3123,15 @@
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="51"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="49"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="52"/>
       <c r="M100" s="3"/>
       <c r="N100" s="2"/>
     </row>
@@ -3138,15 +3139,15 @@
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="55"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="51"/>
+      <c r="F101" s="49"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="54"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="52"/>
       <c r="M101" s="3"/>
       <c r="N101" s="2"/>
     </row>
@@ -3154,15 +3155,15 @@
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="55"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="51"/>
+      <c r="F102" s="49"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="52"/>
       <c r="M102" s="3"/>
       <c r="N102" s="2"/>
     </row>
@@ -3170,15 +3171,15 @@
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="51"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="54"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="52"/>
       <c r="M103" s="3"/>
       <c r="N103" s="2"/>
     </row>
@@ -3186,15 +3187,15 @@
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="51"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="52"/>
       <c r="M104" s="3"/>
       <c r="N104" s="2"/>
     </row>
@@ -3202,15 +3203,15 @@
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="60"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="58"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="54"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="52"/>
       <c r="M105" s="3"/>
       <c r="N105" s="2"/>
     </row>
@@ -3218,15 +3219,15 @@
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="61"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="59"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="52"/>
       <c r="M106" s="3"/>
       <c r="N106" s="2"/>
     </row>
@@ -3234,15 +3235,15 @@
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="61"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="54"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="52"/>
       <c r="M107" s="3"/>
       <c r="N107" s="2"/>
     </row>
@@ -3250,15 +3251,15 @@
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="59"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="57"/>
       <c r="F108" s="4"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="53"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="51"/>
       <c r="J108" s="10"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="54"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="52"/>
       <c r="M108" s="3"/>
       <c r="N108" s="2"/>
     </row>
@@ -3266,15 +3267,15 @@
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="50"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="48"/>
       <c r="F109" s="4"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="53"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="51"/>
       <c r="J109" s="10"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="54"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="52"/>
       <c r="M109" s="3"/>
       <c r="N109" s="2"/>
     </row>
@@ -3282,15 +3283,15 @@
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="59"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="57"/>
       <c r="F110" s="4"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="53"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="51"/>
       <c r="J110" s="10"/>
-      <c r="K110" s="53"/>
-      <c r="L110" s="54"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="52"/>
       <c r="M110" s="3"/>
       <c r="N110" s="2"/>
     </row>
@@ -3298,15 +3299,15 @@
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="59"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="57"/>
       <c r="F111" s="4"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="53"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="51"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="54"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="52"/>
       <c r="M111" s="3"/>
       <c r="N111" s="2"/>
     </row>
@@ -3314,15 +3315,15 @@
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="59"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="57"/>
       <c r="F112" s="4"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="53"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="51"/>
       <c r="J112" s="10"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="54"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="52"/>
       <c r="M112" s="3"/>
       <c r="N112" s="2"/>
     </row>
@@ -3330,15 +3331,15 @@
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="59"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="57"/>
       <c r="F113" s="4"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="53"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="51"/>
       <c r="J113" s="10"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="54"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="52"/>
       <c r="M113" s="3"/>
       <c r="N113" s="2"/>
     </row>
@@ -3346,15 +3347,15 @@
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="59"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="57"/>
       <c r="F114" s="4"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="53"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="51"/>
       <c r="J114" s="10"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="54"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="52"/>
       <c r="M114" s="3"/>
       <c r="N114" s="2"/>
     </row>
@@ -3362,15 +3363,15 @@
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="50"/>
+      <c r="I115" s="51"/>
       <c r="J115" s="10"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="54"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="52"/>
       <c r="M115" s="3"/>
       <c r="N115" s="2"/>
     </row>
@@ -3378,15 +3379,15 @@
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="61"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="50"/>
+      <c r="I116" s="51"/>
       <c r="J116" s="10"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="54"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="52"/>
       <c r="M116" s="3"/>
       <c r="N116" s="2"/>
     </row>
@@ -3394,15 +3395,15 @@
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="51"/>
       <c r="J117" s="10"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="54"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="52"/>
       <c r="M117" s="3"/>
       <c r="N117" s="2"/>
     </row>
@@ -3410,15 +3411,15 @@
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="51"/>
       <c r="J118" s="10"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="54"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="52"/>
       <c r="M118" s="3"/>
       <c r="N118" s="2"/>
     </row>
@@ -3426,15 +3427,15 @@
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="50"/>
+      <c r="I119" s="51"/>
       <c r="J119" s="10"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="54"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="52"/>
       <c r="M119" s="3"/>
       <c r="N119" s="2"/>
     </row>
@@ -3442,15 +3443,15 @@
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="51"/>
       <c r="J120" s="10"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="54"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="52"/>
       <c r="M120" s="3"/>
       <c r="N120" s="2"/>
     </row>
@@ -3458,15 +3459,15 @@
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="51"/>
       <c r="J121" s="10"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="54"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="52"/>
       <c r="M121" s="3"/>
       <c r="N121" s="2"/>
     </row>
@@ -3474,15 +3475,15 @@
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="51"/>
       <c r="J122" s="10"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="54"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="52"/>
       <c r="M122" s="3"/>
       <c r="N122" s="2"/>
     </row>
@@ -3490,15 +3491,15 @@
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="53"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="51"/>
       <c r="J123" s="10"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="54"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="52"/>
       <c r="M123" s="3"/>
       <c r="N123" s="2"/>
     </row>
@@ -3506,15 +3507,15 @@
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="51"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="50"/>
+      <c r="I124" s="51"/>
       <c r="J124" s="10"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="54"/>
+      <c r="K124" s="51"/>
+      <c r="L124" s="52"/>
       <c r="M124" s="3"/>
       <c r="N124" s="2"/>
     </row>
@@ -3522,15 +3523,15 @@
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="52"/>
-      <c r="I125" s="53"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="51"/>
       <c r="J125" s="10"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="54"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="52"/>
       <c r="M125" s="3"/>
       <c r="N125" s="4"/>
     </row>
@@ -3538,15 +3539,15 @@
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="51"/>
-      <c r="G126" s="62"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="60"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="53"/>
+      <c r="I126" s="51"/>
       <c r="J126" s="10"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="54"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="52"/>
       <c r="M126" s="3"/>
       <c r="N126" s="2"/>
     </row>
@@ -3554,15 +3555,15 @@
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="53"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="51"/>
       <c r="J127" s="10"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="54"/>
+      <c r="K127" s="51"/>
+      <c r="L127" s="52"/>
       <c r="M127" s="3"/>
       <c r="N127" s="4"/>
     </row>
@@ -3570,15 +3571,15 @@
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="50"/>
-      <c r="F128" s="51"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="51"/>
       <c r="J128" s="10"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="54"/>
+      <c r="K128" s="51"/>
+      <c r="L128" s="52"/>
       <c r="M128" s="3"/>
       <c r="N128" s="5"/>
     </row>
@@ -3586,15 +3587,15 @@
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="51"/>
       <c r="J129" s="10"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="54"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="52"/>
       <c r="M129" s="3"/>
       <c r="N129" s="4"/>
     </row>
@@ -3602,15 +3603,15 @@
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="53"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="51"/>
       <c r="J130" s="10"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="54"/>
+      <c r="K130" s="51"/>
+      <c r="L130" s="52"/>
       <c r="M130" s="3"/>
       <c r="N130" s="4"/>
     </row>
@@ -3618,15 +3619,15 @@
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="51"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="51"/>
       <c r="J131" s="10"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="54"/>
+      <c r="K131" s="51"/>
+      <c r="L131" s="52"/>
       <c r="M131" s="3"/>
       <c r="N131" s="4"/>
     </row>
@@ -3634,15 +3635,15 @@
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="51"/>
       <c r="J132" s="10"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="54"/>
+      <c r="K132" s="51"/>
+      <c r="L132" s="52"/>
       <c r="M132" s="3"/>
       <c r="N132" s="4"/>
     </row>
@@ -3650,15 +3651,15 @@
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="51"/>
       <c r="J133" s="10"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="54"/>
+      <c r="K133" s="51"/>
+      <c r="L133" s="52"/>
       <c r="M133" s="3"/>
       <c r="N133" s="4"/>
     </row>
@@ -3666,15 +3667,15 @@
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="51"/>
       <c r="J134" s="10"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="54"/>
+      <c r="K134" s="51"/>
+      <c r="L134" s="52"/>
       <c r="M134" s="3"/>
       <c r="N134" s="4"/>
     </row>
@@ -3682,15 +3683,15 @@
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="51"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="52"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="50"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="54"/>
+      <c r="K135" s="51"/>
+      <c r="L135" s="52"/>
       <c r="M135" s="3"/>
       <c r="N135" s="5"/>
     </row>
@@ -3698,15 +3699,15 @@
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="51"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="52"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="50"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="54"/>
+      <c r="K136" s="51"/>
+      <c r="L136" s="52"/>
       <c r="M136" s="3"/>
       <c r="N136" s="5"/>
     </row>
@@ -3714,15 +3715,15 @@
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="51"/>
-      <c r="G137" s="62"/>
-      <c r="H137" s="52"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="50"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="54"/>
+      <c r="K137" s="51"/>
+      <c r="L137" s="52"/>
       <c r="M137" s="3"/>
       <c r="N137" s="5"/>
     </row>
@@ -3730,15 +3731,15 @@
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="62"/>
-      <c r="H138" s="52"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="50"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
-      <c r="K138" s="53"/>
-      <c r="L138" s="54"/>
+      <c r="K138" s="51"/>
+      <c r="L138" s="52"/>
       <c r="M138" s="3"/>
       <c r="N138" s="5"/>
     </row>
@@ -3746,15 +3747,15 @@
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="52"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="50"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
-      <c r="K139" s="53"/>
-      <c r="L139" s="54"/>
+      <c r="K139" s="51"/>
+      <c r="L139" s="52"/>
       <c r="M139" s="3"/>
       <c r="N139" s="5"/>
     </row>
@@ -3762,15 +3763,15 @@
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="51"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="52"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="50"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="54"/>
+      <c r="K140" s="51"/>
+      <c r="L140" s="52"/>
       <c r="M140" s="3"/>
       <c r="N140" s="5"/>
     </row>
@@ -3778,15 +3779,15 @@
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="51"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="52"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="50"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
-      <c r="K141" s="53"/>
-      <c r="L141" s="54"/>
+      <c r="K141" s="51"/>
+      <c r="L141" s="52"/>
       <c r="M141" s="3"/>
       <c r="N141" s="5"/>
     </row>
@@ -3794,15 +3795,15 @@
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="62"/>
-      <c r="H142" s="52"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="50"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
-      <c r="K142" s="53"/>
-      <c r="L142" s="54"/>
+      <c r="K142" s="51"/>
+      <c r="L142" s="52"/>
       <c r="M142" s="3"/>
       <c r="N142" s="5"/>
     </row>
@@ -3810,15 +3811,15 @@
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="63"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="61"/>
       <c r="G143" s="4"/>
       <c r="H143" s="11"/>
-      <c r="I143" s="53"/>
-      <c r="J143" s="53"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="54"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
+      <c r="K143" s="51"/>
+      <c r="L143" s="52"/>
       <c r="M143" s="3"/>
       <c r="N143" s="5"/>
     </row>
@@ -3826,15 +3827,15 @@
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="63"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="61"/>
       <c r="G144" s="4"/>
       <c r="H144" s="11"/>
-      <c r="I144" s="53"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="54"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
+      <c r="K144" s="51"/>
+      <c r="L144" s="52"/>
       <c r="M144" s="3"/>
       <c r="N144" s="5"/>
     </row>
@@ -3842,15 +3843,15 @@
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="63"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="61"/>
       <c r="G145" s="4"/>
       <c r="H145" s="11"/>
-      <c r="I145" s="53"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="54"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
+      <c r="K145" s="51"/>
+      <c r="L145" s="52"/>
       <c r="M145" s="3"/>
       <c r="N145" s="5"/>
     </row>
@@ -3858,15 +3859,15 @@
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="63"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="61"/>
       <c r="G146" s="4"/>
       <c r="H146" s="11"/>
-      <c r="I146" s="53"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="54"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="51"/>
+      <c r="K146" s="51"/>
+      <c r="L146" s="52"/>
       <c r="M146" s="3"/>
       <c r="N146" s="5"/>
     </row>
@@ -3874,15 +3875,15 @@
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="63"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="61"/>
       <c r="G147" s="4"/>
       <c r="H147" s="11"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="54"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="51"/>
+      <c r="K147" s="51"/>
+      <c r="L147" s="52"/>
       <c r="M147" s="3"/>
       <c r="N147" s="5"/>
     </row>
@@ -3890,15 +3891,15 @@
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="63"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="61"/>
       <c r="G148" s="4"/>
       <c r="H148" s="11"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="54"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="51"/>
+      <c r="L148" s="52"/>
       <c r="M148" s="3"/>
       <c r="N148" s="5"/>
     </row>
@@ -3906,15 +3907,15 @@
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="63"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="61"/>
       <c r="G149" s="4"/>
       <c r="H149" s="11"/>
-      <c r="I149" s="53"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="54"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
+      <c r="K149" s="51"/>
+      <c r="L149" s="52"/>
       <c r="M149" s="3"/>
       <c r="N149" s="5"/>
     </row>
@@ -3922,15 +3923,15 @@
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="63"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="61"/>
       <c r="G150" s="4"/>
       <c r="H150" s="11"/>
-      <c r="I150" s="53"/>
-      <c r="J150" s="53"/>
-      <c r="K150" s="53"/>
-      <c r="L150" s="54"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+      <c r="K150" s="51"/>
+      <c r="L150" s="52"/>
       <c r="M150" s="3"/>
       <c r="N150" s="5"/>
     </row>
@@ -3938,15 +3939,15 @@
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="64"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="62"/>
       <c r="G151" s="4"/>
       <c r="H151" s="11"/>
-      <c r="I151" s="53"/>
-      <c r="J151" s="53"/>
-      <c r="K151" s="53"/>
-      <c r="L151" s="54"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="52"/>
       <c r="M151" s="3"/>
       <c r="N151" s="5"/>
     </row>
@@ -3954,15 +3955,15 @@
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="64"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="62"/>
       <c r="G152" s="4"/>
       <c r="H152" s="11"/>
-      <c r="I152" s="53"/>
-      <c r="J152" s="53"/>
-      <c r="K152" s="53"/>
-      <c r="L152" s="54"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="52"/>
       <c r="M152" s="3"/>
       <c r="N152" s="5"/>
     </row>
@@ -3970,15 +3971,15 @@
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="50"/>
-      <c r="F153" s="64"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="62"/>
       <c r="G153" s="4"/>
       <c r="H153" s="11"/>
-      <c r="I153" s="53"/>
-      <c r="J153" s="53"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="54"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="52"/>
       <c r="M153" s="3"/>
       <c r="N153" s="5"/>
     </row>
@@ -3986,175 +3987,175 @@
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="50"/>
-      <c r="F154" s="63"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="61"/>
       <c r="G154" s="4"/>
       <c r="H154" s="11"/>
-      <c r="I154" s="53"/>
-      <c r="J154" s="54"/>
-      <c r="K154" s="53"/>
-      <c r="L154" s="54"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="52"/>
+      <c r="K154" s="51"/>
+      <c r="L154" s="52"/>
       <c r="M154" s="3"/>
-      <c r="N154" s="65"/>
+      <c r="N154" s="63"/>
     </row>
     <row r="155" spans="1:14" s="1" customFormat="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="50"/>
-      <c r="F155" s="63"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="61"/>
       <c r="G155" s="4"/>
       <c r="H155" s="11"/>
-      <c r="I155" s="53"/>
-      <c r="J155" s="54"/>
-      <c r="K155" s="53"/>
-      <c r="L155" s="54"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="52"/>
+      <c r="K155" s="51"/>
+      <c r="L155" s="52"/>
       <c r="M155" s="3"/>
-      <c r="N155" s="65"/>
+      <c r="N155" s="63"/>
     </row>
     <row r="156" spans="1:14" s="1" customFormat="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="63"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="61"/>
       <c r="G156" s="4"/>
       <c r="H156" s="11"/>
-      <c r="I156" s="53"/>
-      <c r="J156" s="54"/>
-      <c r="K156" s="53"/>
-      <c r="L156" s="54"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="52"/>
+      <c r="K156" s="51"/>
+      <c r="L156" s="52"/>
       <c r="M156" s="3"/>
-      <c r="N156" s="65"/>
+      <c r="N156" s="63"/>
     </row>
     <row r="157" spans="1:14" s="1" customFormat="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="50"/>
-      <c r="F157" s="63"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="61"/>
       <c r="G157" s="4"/>
       <c r="H157" s="11"/>
-      <c r="I157" s="53"/>
-      <c r="J157" s="54"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="54"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="52"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="52"/>
       <c r="M157" s="3"/>
-      <c r="N157" s="65"/>
+      <c r="N157" s="63"/>
     </row>
     <row r="158" spans="1:14" s="1" customFormat="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="63"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="61"/>
       <c r="G158" s="4"/>
       <c r="H158" s="11"/>
-      <c r="I158" s="53"/>
-      <c r="J158" s="54"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="54"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="51"/>
+      <c r="L158" s="52"/>
       <c r="M158" s="3"/>
-      <c r="N158" s="65"/>
+      <c r="N158" s="63"/>
     </row>
     <row r="159" spans="1:14" s="1" customFormat="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="63"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="61"/>
       <c r="G159" s="4"/>
       <c r="H159" s="11"/>
-      <c r="I159" s="53"/>
-      <c r="J159" s="54"/>
-      <c r="K159" s="53"/>
-      <c r="L159" s="54"/>
+      <c r="I159" s="51"/>
+      <c r="J159" s="52"/>
+      <c r="K159" s="51"/>
+      <c r="L159" s="52"/>
       <c r="M159" s="3"/>
-      <c r="N159" s="65"/>
+      <c r="N159" s="63"/>
     </row>
     <row r="160" spans="1:14" s="1" customFormat="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="63"/>
+      <c r="D160" s="53"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="61"/>
       <c r="G160" s="4"/>
       <c r="H160" s="11"/>
-      <c r="I160" s="53"/>
-      <c r="J160" s="54"/>
-      <c r="K160" s="53"/>
-      <c r="L160" s="54"/>
+      <c r="I160" s="51"/>
+      <c r="J160" s="52"/>
+      <c r="K160" s="51"/>
+      <c r="L160" s="52"/>
       <c r="M160" s="3"/>
-      <c r="N160" s="65"/>
+      <c r="N160" s="63"/>
     </row>
     <row r="161" spans="1:14" s="1" customFormat="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="63"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="61"/>
       <c r="G161" s="4"/>
       <c r="H161" s="11"/>
-      <c r="I161" s="53"/>
-      <c r="J161" s="54"/>
-      <c r="K161" s="53"/>
-      <c r="L161" s="54"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="52"/>
+      <c r="K161" s="51"/>
+      <c r="L161" s="52"/>
       <c r="M161" s="3"/>
-      <c r="N161" s="65"/>
+      <c r="N161" s="63"/>
     </row>
     <row r="162" spans="1:14" s="1" customFormat="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="63"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="61"/>
       <c r="G162" s="4"/>
       <c r="H162" s="11"/>
-      <c r="I162" s="53"/>
-      <c r="J162" s="54"/>
-      <c r="K162" s="53"/>
-      <c r="L162" s="54"/>
+      <c r="I162" s="51"/>
+      <c r="J162" s="52"/>
+      <c r="K162" s="51"/>
+      <c r="L162" s="52"/>
       <c r="M162" s="3"/>
-      <c r="N162" s="65"/>
+      <c r="N162" s="63"/>
     </row>
     <row r="163" spans="1:14" s="1" customFormat="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="64"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="62"/>
       <c r="G163" s="4"/>
       <c r="H163" s="11"/>
-      <c r="I163" s="53"/>
-      <c r="J163" s="54"/>
-      <c r="K163" s="53"/>
-      <c r="L163" s="54"/>
+      <c r="I163" s="51"/>
+      <c r="J163" s="52"/>
+      <c r="K163" s="51"/>
+      <c r="L163" s="52"/>
       <c r="M163" s="3"/>
-      <c r="N163" s="65"/>
+      <c r="N163" s="63"/>
     </row>
     <row r="164" spans="1:14" s="1" customFormat="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="63"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="61"/>
       <c r="G164" s="4"/>
       <c r="H164" s="11"/>
-      <c r="I164" s="53"/>
-      <c r="J164" s="53"/>
-      <c r="K164" s="53"/>
-      <c r="L164" s="54"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="52"/>
       <c r="M164" s="3"/>
       <c r="N164" s="5"/>
     </row>
@@ -4162,63 +4163,63 @@
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="63"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="61"/>
       <c r="G165" s="4"/>
       <c r="H165" s="11"/>
-      <c r="I165" s="53"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="53"/>
-      <c r="L165" s="54"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51"/>
+      <c r="L165" s="52"/>
       <c r="M165" s="3"/>
-      <c r="N165" s="65"/>
+      <c r="N165" s="63"/>
     </row>
     <row r="166" spans="1:14" s="1" customFormat="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="64"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="62"/>
       <c r="G166" s="4"/>
       <c r="H166" s="11"/>
-      <c r="I166" s="53"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="53"/>
-      <c r="L166" s="54"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="51"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="52"/>
       <c r="M166" s="3"/>
-      <c r="N166" s="65"/>
+      <c r="N166" s="63"/>
     </row>
     <row r="167" spans="1:14" s="1" customFormat="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="64"/>
+      <c r="D167" s="53"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="62"/>
       <c r="G167" s="4"/>
       <c r="H167" s="11"/>
-      <c r="I167" s="53"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="53"/>
-      <c r="L167" s="54"/>
+      <c r="I167" s="51"/>
+      <c r="J167" s="51"/>
+      <c r="K167" s="51"/>
+      <c r="L167" s="52"/>
       <c r="M167" s="3"/>
-      <c r="N167" s="65"/>
+      <c r="N167" s="63"/>
     </row>
     <row r="168" spans="1:14" s="1" customFormat="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="64"/>
+      <c r="D168" s="53"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="62"/>
       <c r="G168" s="4"/>
       <c r="H168" s="11"/>
-      <c r="I168" s="53"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="53"/>
-      <c r="L168" s="54"/>
+      <c r="I168" s="51"/>
+      <c r="J168" s="51"/>
+      <c r="K168" s="51"/>
+      <c r="L168" s="52"/>
       <c r="M168" s="3"/>
       <c r="N168" s="5"/>
     </row>
@@ -4226,15 +4227,15 @@
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="63"/>
+      <c r="D169" s="53"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="61"/>
       <c r="G169" s="4"/>
       <c r="H169" s="11"/>
-      <c r="I169" s="53"/>
-      <c r="J169" s="54"/>
-      <c r="K169" s="53"/>
-      <c r="L169" s="54"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="52"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="52"/>
       <c r="M169" s="3"/>
       <c r="N169" s="5"/>
     </row>
@@ -4242,15 +4243,15 @@
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="64"/>
+      <c r="D170" s="53"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="62"/>
       <c r="G170" s="4"/>
       <c r="H170" s="11"/>
-      <c r="I170" s="53"/>
-      <c r="J170" s="54"/>
-      <c r="K170" s="53"/>
-      <c r="L170" s="54"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="52"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="52"/>
       <c r="M170" s="3"/>
       <c r="N170" s="5"/>
     </row>
@@ -4258,15 +4259,15 @@
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="63"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="61"/>
       <c r="G171" s="4"/>
       <c r="H171" s="11"/>
-      <c r="I171" s="53"/>
-      <c r="J171" s="54"/>
-      <c r="K171" s="53"/>
-      <c r="L171" s="54"/>
+      <c r="I171" s="51"/>
+      <c r="J171" s="52"/>
+      <c r="K171" s="51"/>
+      <c r="L171" s="52"/>
       <c r="M171" s="3"/>
       <c r="N171" s="5"/>
     </row>
@@ -4274,79 +4275,79 @@
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="51"/>
-      <c r="G172" s="62"/>
-      <c r="H172" s="52"/>
-      <c r="I172" s="53"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="51"/>
       <c r="J172" s="10"/>
-      <c r="K172" s="53"/>
-      <c r="L172" s="54"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="52"/>
       <c r="M172" s="3"/>
-      <c r="N172" s="66"/>
+      <c r="N172" s="64"/>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="51"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="52"/>
-      <c r="I173" s="53"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="51"/>
       <c r="J173" s="10"/>
-      <c r="K173" s="53"/>
-      <c r="L173" s="54"/>
+      <c r="K173" s="51"/>
+      <c r="L173" s="52"/>
       <c r="M173" s="3"/>
-      <c r="N173" s="66"/>
+      <c r="N173" s="64"/>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="51"/>
-      <c r="G174" s="62"/>
-      <c r="H174" s="52"/>
-      <c r="I174" s="53"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="60"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="51"/>
       <c r="J174" s="10"/>
-      <c r="K174" s="53"/>
-      <c r="L174" s="54"/>
+      <c r="K174" s="51"/>
+      <c r="L174" s="52"/>
       <c r="M174" s="3"/>
-      <c r="N174" s="66"/>
+      <c r="N174" s="64"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="51"/>
-      <c r="G175" s="62"/>
-      <c r="H175" s="52"/>
-      <c r="I175" s="53"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="49"/>
+      <c r="G175" s="60"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="51"/>
       <c r="J175" s="10"/>
-      <c r="K175" s="53"/>
-      <c r="L175" s="54"/>
+      <c r="K175" s="51"/>
+      <c r="L175" s="52"/>
       <c r="M175" s="3"/>
-      <c r="N175" s="66"/>
+      <c r="N175" s="64"/>
     </row>
     <row r="176" spans="1:14" s="1" customFormat="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="63"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="61"/>
       <c r="G176" s="4"/>
       <c r="H176" s="11"/>
-      <c r="I176" s="53"/>
-      <c r="J176" s="54"/>
-      <c r="K176" s="53"/>
-      <c r="L176" s="54"/>
+      <c r="I176" s="51"/>
+      <c r="J176" s="52"/>
+      <c r="K176" s="51"/>
+      <c r="L176" s="52"/>
       <c r="M176" s="3"/>
       <c r="N176" s="5"/>
     </row>
@@ -4354,15 +4355,15 @@
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="63"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="61"/>
       <c r="G177" s="4"/>
       <c r="H177" s="11"/>
-      <c r="I177" s="53"/>
-      <c r="J177" s="54"/>
-      <c r="K177" s="53"/>
-      <c r="L177" s="54"/>
+      <c r="I177" s="51"/>
+      <c r="J177" s="52"/>
+      <c r="K177" s="51"/>
+      <c r="L177" s="52"/>
       <c r="M177" s="3"/>
       <c r="N177" s="5"/>
     </row>
@@ -4370,15 +4371,15 @@
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="50"/>
-      <c r="F178" s="63"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="61"/>
       <c r="G178" s="4"/>
       <c r="H178" s="11"/>
-      <c r="I178" s="53"/>
-      <c r="J178" s="54"/>
-      <c r="K178" s="53"/>
-      <c r="L178" s="54"/>
+      <c r="I178" s="51"/>
+      <c r="J178" s="52"/>
+      <c r="K178" s="51"/>
+      <c r="L178" s="52"/>
       <c r="M178" s="3"/>
       <c r="N178" s="5"/>
     </row>
@@ -4386,15 +4387,15 @@
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="63"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="61"/>
       <c r="G179" s="4"/>
       <c r="H179" s="11"/>
-      <c r="I179" s="53"/>
-      <c r="J179" s="54"/>
-      <c r="K179" s="53"/>
-      <c r="L179" s="54"/>
+      <c r="I179" s="51"/>
+      <c r="J179" s="52"/>
+      <c r="K179" s="51"/>
+      <c r="L179" s="52"/>
       <c r="M179" s="3"/>
       <c r="N179" s="5"/>
     </row>
@@ -4402,15 +4403,15 @@
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="51"/>
-      <c r="G180" s="62"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="60"/>
       <c r="H180" s="11"/>
-      <c r="I180" s="53"/>
-      <c r="J180" s="54"/>
-      <c r="K180" s="53"/>
-      <c r="L180" s="54"/>
+      <c r="I180" s="51"/>
+      <c r="J180" s="52"/>
+      <c r="K180" s="51"/>
+      <c r="L180" s="52"/>
       <c r="M180" s="3"/>
       <c r="N180" s="5"/>
     </row>
@@ -4418,15 +4419,15 @@
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="50"/>
-      <c r="F181" s="64"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="62"/>
       <c r="G181" s="4"/>
       <c r="H181" s="11"/>
-      <c r="I181" s="53"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
-      <c r="L181" s="54"/>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="52"/>
       <c r="M181" s="3"/>
       <c r="N181" s="5"/>
     </row>
@@ -4434,15 +4435,15 @@
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="50"/>
-      <c r="F182" s="63"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="61"/>
       <c r="G182" s="4"/>
       <c r="H182" s="11"/>
       <c r="I182" s="10"/>
-      <c r="J182" s="54"/>
-      <c r="K182" s="53"/>
-      <c r="L182" s="54"/>
+      <c r="J182" s="52"/>
+      <c r="K182" s="51"/>
+      <c r="L182" s="52"/>
       <c r="M182" s="3"/>
       <c r="N182" s="5"/>
     </row>
@@ -4450,15 +4451,15 @@
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="50"/>
-      <c r="F183" s="63"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="61"/>
       <c r="G183" s="4"/>
       <c r="H183" s="11"/>
       <c r="I183" s="10"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="53"/>
-      <c r="L183" s="54"/>
+      <c r="J183" s="52"/>
+      <c r="K183" s="51"/>
+      <c r="L183" s="52"/>
       <c r="M183" s="3"/>
       <c r="N183" s="5"/>
     </row>
@@ -4466,15 +4467,15 @@
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="50"/>
-      <c r="F184" s="63"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="61"/>
       <c r="G184" s="4"/>
       <c r="H184" s="11"/>
       <c r="I184" s="10"/>
-      <c r="J184" s="54"/>
-      <c r="K184" s="53"/>
-      <c r="L184" s="54"/>
+      <c r="J184" s="52"/>
+      <c r="K184" s="51"/>
+      <c r="L184" s="52"/>
       <c r="M184" s="3"/>
       <c r="N184" s="5"/>
     </row>
@@ -4482,15 +4483,15 @@
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="50"/>
-      <c r="F185" s="63"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="61"/>
       <c r="G185" s="4"/>
       <c r="H185" s="11"/>
       <c r="I185" s="10"/>
-      <c r="J185" s="54"/>
-      <c r="K185" s="53"/>
-      <c r="L185" s="54"/>
+      <c r="J185" s="52"/>
+      <c r="K185" s="51"/>
+      <c r="L185" s="52"/>
       <c r="M185" s="3"/>
       <c r="N185" s="5"/>
     </row>
@@ -4498,15 +4499,15 @@
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="63"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="61"/>
       <c r="G186" s="4"/>
       <c r="H186" s="11"/>
       <c r="I186" s="10"/>
-      <c r="J186" s="54"/>
-      <c r="K186" s="53"/>
-      <c r="L186" s="54"/>
+      <c r="J186" s="52"/>
+      <c r="K186" s="51"/>
+      <c r="L186" s="52"/>
       <c r="M186" s="3"/>
       <c r="N186" s="5"/>
     </row>
@@ -4514,223 +4515,223 @@
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="63"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="61"/>
       <c r="G187" s="4"/>
       <c r="H187" s="11"/>
       <c r="I187" s="10"/>
-      <c r="J187" s="54"/>
-      <c r="K187" s="53"/>
-      <c r="L187" s="54"/>
+      <c r="J187" s="52"/>
+      <c r="K187" s="51"/>
+      <c r="L187" s="52"/>
       <c r="M187" s="3"/>
       <c r="N187" s="5"/>
     </row>
-    <row r="188" spans="1:14" s="67" customFormat="1" ht="14">
+    <row r="188" spans="1:14" s="65" customFormat="1" ht="14">
       <c r="A188" s="2"/>
       <c r="B188" s="8"/>
-      <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="53"/>
       <c r="E188" s="9"/>
       <c r="F188" s="4"/>
       <c r="G188" s="10"/>
-      <c r="H188" s="52"/>
+      <c r="H188" s="50"/>
       <c r="I188" s="10"/>
-      <c r="J188" s="54"/>
-      <c r="K188" s="53"/>
-      <c r="L188" s="54"/>
+      <c r="J188" s="52"/>
+      <c r="K188" s="51"/>
+      <c r="L188" s="52"/>
       <c r="M188" s="3"/>
       <c r="N188" s="5"/>
     </row>
-    <row r="189" spans="1:14" s="68" customFormat="1" ht="13">
+    <row r="189" spans="1:14" s="66" customFormat="1" ht="13">
       <c r="A189" s="2"/>
       <c r="B189" s="8"/>
-      <c r="C189" s="55"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="63"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="61"/>
       <c r="G189" s="4"/>
       <c r="H189" s="11"/>
       <c r="I189" s="10"/>
-      <c r="J189" s="54"/>
-      <c r="K189" s="53"/>
-      <c r="L189" s="54"/>
+      <c r="J189" s="52"/>
+      <c r="K189" s="51"/>
+      <c r="L189" s="52"/>
       <c r="M189" s="3"/>
       <c r="N189" s="5"/>
     </row>
-    <row r="190" spans="1:14" s="68" customFormat="1" ht="13">
+    <row r="190" spans="1:14" s="66" customFormat="1" ht="13">
       <c r="A190" s="2"/>
       <c r="B190" s="8"/>
-      <c r="C190" s="55"/>
-      <c r="D190" s="55"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="63"/>
+      <c r="F190" s="61"/>
       <c r="G190" s="4"/>
       <c r="H190" s="11"/>
       <c r="I190" s="10"/>
-      <c r="J190" s="54"/>
-      <c r="K190" s="53"/>
-      <c r="L190" s="54"/>
+      <c r="J190" s="52"/>
+      <c r="K190" s="51"/>
+      <c r="L190" s="52"/>
       <c r="M190" s="3"/>
       <c r="N190" s="5"/>
     </row>
-    <row r="191" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A191" s="69"/>
+    <row r="191" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A191" s="67"/>
       <c r="B191" s="8"/>
-      <c r="C191" s="55"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="70"/>
-      <c r="G191" s="62"/>
-      <c r="H191" s="52"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="53"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="68"/>
+      <c r="G191" s="60"/>
+      <c r="H191" s="50"/>
       <c r="I191" s="10"/>
-      <c r="J191" s="54"/>
-      <c r="K191" s="53"/>
-      <c r="L191" s="54"/>
+      <c r="J191" s="52"/>
+      <c r="K191" s="51"/>
+      <c r="L191" s="52"/>
       <c r="M191" s="3"/>
       <c r="N191" s="5"/>
     </row>
-    <row r="192" spans="1:14" s="68" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A192" s="69"/>
+    <row r="192" spans="1:14" s="66" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A192" s="67"/>
       <c r="B192" s="8"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="55"/>
+      <c r="D192" s="53"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="70"/>
-      <c r="G192" s="62"/>
-      <c r="H192" s="52"/>
+      <c r="F192" s="68"/>
+      <c r="G192" s="60"/>
+      <c r="H192" s="50"/>
       <c r="I192" s="10"/>
-      <c r="J192" s="54"/>
-      <c r="K192" s="53"/>
-      <c r="L192" s="54"/>
+      <c r="J192" s="52"/>
+      <c r="K192" s="51"/>
+      <c r="L192" s="52"/>
       <c r="M192" s="3"/>
       <c r="N192" s="5"/>
     </row>
-    <row r="193" spans="1:14" s="68" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A193" s="69"/>
+    <row r="193" spans="1:14" s="66" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A193" s="67"/>
       <c r="B193" s="8"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="55"/>
+      <c r="D193" s="53"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="70"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="52"/>
+      <c r="F193" s="68"/>
+      <c r="G193" s="60"/>
+      <c r="H193" s="50"/>
       <c r="I193" s="10"/>
-      <c r="J193" s="54"/>
-      <c r="K193" s="53"/>
-      <c r="L193" s="54"/>
+      <c r="J193" s="52"/>
+      <c r="K193" s="51"/>
+      <c r="L193" s="52"/>
       <c r="M193" s="3"/>
       <c r="N193" s="5"/>
     </row>
-    <row r="194" spans="1:14" s="68" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A194" s="69"/>
+    <row r="194" spans="1:14" s="66" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A194" s="67"/>
       <c r="B194" s="8"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="55"/>
+      <c r="D194" s="53"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="62"/>
-      <c r="H194" s="52"/>
+      <c r="F194" s="68"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="50"/>
       <c r="I194" s="10"/>
-      <c r="J194" s="54"/>
-      <c r="K194" s="53"/>
-      <c r="L194" s="54"/>
+      <c r="J194" s="52"/>
+      <c r="K194" s="51"/>
+      <c r="L194" s="52"/>
       <c r="M194" s="3"/>
       <c r="N194" s="5"/>
     </row>
-    <row r="195" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A195" s="69"/>
+    <row r="195" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A195" s="67"/>
       <c r="B195" s="8"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="55"/>
+      <c r="D195" s="53"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="70"/>
-      <c r="G195" s="62"/>
-      <c r="H195" s="52"/>
+      <c r="F195" s="68"/>
+      <c r="G195" s="60"/>
+      <c r="H195" s="50"/>
       <c r="I195" s="10"/>
-      <c r="J195" s="54"/>
-      <c r="K195" s="53"/>
-      <c r="L195" s="54"/>
+      <c r="J195" s="52"/>
+      <c r="K195" s="51"/>
+      <c r="L195" s="52"/>
       <c r="M195" s="3"/>
       <c r="N195" s="5"/>
     </row>
-    <row r="196" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A196" s="69"/>
+    <row r="196" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A196" s="67"/>
       <c r="B196" s="8"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="55"/>
+      <c r="D196" s="53"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="62"/>
-      <c r="H196" s="52"/>
+      <c r="F196" s="68"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="50"/>
       <c r="I196" s="10"/>
-      <c r="J196" s="54"/>
-      <c r="K196" s="53"/>
-      <c r="L196" s="54"/>
+      <c r="J196" s="52"/>
+      <c r="K196" s="51"/>
+      <c r="L196" s="52"/>
       <c r="M196" s="3"/>
       <c r="N196" s="5"/>
     </row>
-    <row r="197" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A197" s="69"/>
+    <row r="197" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A197" s="67"/>
       <c r="B197" s="8"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="55"/>
+      <c r="D197" s="53"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="70"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="52"/>
+      <c r="F197" s="68"/>
+      <c r="G197" s="60"/>
+      <c r="H197" s="50"/>
       <c r="I197" s="10"/>
-      <c r="J197" s="54"/>
-      <c r="K197" s="53"/>
-      <c r="L197" s="54"/>
+      <c r="J197" s="52"/>
+      <c r="K197" s="51"/>
+      <c r="L197" s="52"/>
       <c r="M197" s="3"/>
       <c r="N197" s="5"/>
     </row>
-    <row r="198" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A198" s="69"/>
+    <row r="198" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A198" s="67"/>
       <c r="B198" s="8"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="55"/>
+      <c r="D198" s="53"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="70"/>
-      <c r="G198" s="62"/>
-      <c r="H198" s="52"/>
+      <c r="F198" s="68"/>
+      <c r="G198" s="60"/>
+      <c r="H198" s="50"/>
       <c r="I198" s="10"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="53"/>
-      <c r="L198" s="54"/>
+      <c r="J198" s="52"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="52"/>
       <c r="M198" s="3"/>
       <c r="N198" s="5"/>
     </row>
-    <row r="199" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A199" s="69"/>
+    <row r="199" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A199" s="67"/>
       <c r="B199" s="8"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="55"/>
+      <c r="D199" s="53"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="70"/>
-      <c r="G199" s="62"/>
-      <c r="H199" s="52"/>
+      <c r="F199" s="68"/>
+      <c r="G199" s="60"/>
+      <c r="H199" s="50"/>
       <c r="I199" s="10"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="53"/>
-      <c r="L199" s="54"/>
+      <c r="J199" s="52"/>
+      <c r="K199" s="51"/>
+      <c r="L199" s="52"/>
       <c r="M199" s="3"/>
       <c r="N199" s="5"/>
     </row>
-    <row r="200" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A200" s="69"/>
+    <row r="200" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A200" s="67"/>
       <c r="B200" s="8"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="55"/>
+      <c r="D200" s="53"/>
       <c r="E200" s="9"/>
-      <c r="F200" s="70"/>
-      <c r="G200" s="62"/>
-      <c r="H200" s="52"/>
+      <c r="F200" s="68"/>
+      <c r="G200" s="60"/>
+      <c r="H200" s="50"/>
       <c r="I200" s="10"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="53"/>
-      <c r="L200" s="54"/>
+      <c r="J200" s="52"/>
+      <c r="K200" s="51"/>
+      <c r="L200" s="52"/>
       <c r="M200" s="3"/>
       <c r="N200" s="5"/>
     </row>
@@ -4738,31 +4739,31 @@
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="50"/>
-      <c r="F201" s="70"/>
-      <c r="G201" s="62"/>
-      <c r="H201" s="52"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="68"/>
+      <c r="G201" s="60"/>
+      <c r="H201" s="50"/>
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
-      <c r="K201" s="53"/>
-      <c r="L201" s="54"/>
+      <c r="K201" s="51"/>
+      <c r="L201" s="52"/>
       <c r="M201" s="3"/>
       <c r="N201" s="2"/>
     </row>
-    <row r="202" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A202" s="69"/>
+    <row r="202" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A202" s="67"/>
       <c r="B202" s="8"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="55"/>
+      <c r="D202" s="53"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="70"/>
-      <c r="G202" s="62"/>
-      <c r="H202" s="52"/>
-      <c r="I202" s="53"/>
+      <c r="F202" s="68"/>
+      <c r="G202" s="60"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="51"/>
       <c r="J202" s="10"/>
-      <c r="K202" s="53"/>
-      <c r="L202" s="54"/>
+      <c r="K202" s="51"/>
+      <c r="L202" s="52"/>
       <c r="M202" s="3"/>
       <c r="N202" s="5"/>
     </row>
@@ -4770,15 +4771,15 @@
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="70"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="68"/>
       <c r="G203" s="4"/>
       <c r="H203" s="11"/>
-      <c r="I203" s="53"/>
-      <c r="J203" s="53"/>
-      <c r="K203" s="53"/>
-      <c r="L203" s="54"/>
+      <c r="I203" s="51"/>
+      <c r="J203" s="51"/>
+      <c r="K203" s="51"/>
+      <c r="L203" s="52"/>
       <c r="M203" s="3"/>
       <c r="N203" s="2"/>
     </row>
@@ -4786,15 +4787,15 @@
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="50"/>
-      <c r="F204" s="70"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="68"/>
       <c r="G204" s="4"/>
-      <c r="H204" s="52"/>
-      <c r="I204" s="53"/>
-      <c r="J204" s="53"/>
-      <c r="K204" s="53"/>
-      <c r="L204" s="54"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="51"/>
+      <c r="J204" s="51"/>
+      <c r="K204" s="51"/>
+      <c r="L204" s="52"/>
       <c r="M204" s="3"/>
       <c r="N204" s="2"/>
     </row>
@@ -4802,15 +4803,15 @@
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="50"/>
-      <c r="F205" s="70"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="68"/>
       <c r="G205" s="4"/>
-      <c r="H205" s="52"/>
-      <c r="I205" s="53"/>
-      <c r="J205" s="53"/>
-      <c r="K205" s="53"/>
-      <c r="L205" s="54"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="51"/>
+      <c r="K205" s="51"/>
+      <c r="L205" s="52"/>
       <c r="M205" s="3"/>
       <c r="N205" s="2"/>
     </row>
@@ -4818,15 +4819,15 @@
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
-      <c r="D206" s="55"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="51"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="49"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="52"/>
-      <c r="I206" s="53"/>
-      <c r="J206" s="53"/>
-      <c r="K206" s="53"/>
-      <c r="L206" s="54"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="51"/>
+      <c r="J206" s="51"/>
+      <c r="K206" s="51"/>
+      <c r="L206" s="52"/>
       <c r="M206" s="3"/>
       <c r="N206" s="2"/>
     </row>
@@ -4834,243 +4835,243 @@
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
-      <c r="D207" s="55"/>
-      <c r="E207" s="59"/>
+      <c r="D207" s="53"/>
+      <c r="E207" s="57"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
-      <c r="H207" s="52"/>
-      <c r="I207" s="53"/>
+      <c r="H207" s="50"/>
+      <c r="I207" s="51"/>
       <c r="J207" s="10"/>
-      <c r="K207" s="53"/>
-      <c r="L207" s="54"/>
+      <c r="K207" s="51"/>
+      <c r="L207" s="52"/>
       <c r="M207" s="3"/>
       <c r="N207" s="2"/>
     </row>
     <row r="208" spans="1:14" s="1" customFormat="1">
-      <c r="A208" s="71"/>
-      <c r="B208" s="69"/>
+      <c r="A208" s="69"/>
+      <c r="B208" s="67"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="55"/>
-      <c r="E208" s="96"/>
-      <c r="F208" s="70"/>
-      <c r="G208" s="62"/>
-      <c r="H208" s="52"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="82"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="60"/>
+      <c r="H208" s="50"/>
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
-      <c r="K208" s="53"/>
-      <c r="L208" s="54"/>
+      <c r="K208" s="51"/>
+      <c r="L208" s="52"/>
       <c r="M208" s="3"/>
       <c r="N208" s="2"/>
     </row>
-    <row r="209" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A209" s="69"/>
-      <c r="B209" s="69"/>
+    <row r="209" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A209" s="67"/>
+      <c r="B209" s="67"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="63"/>
+      <c r="D209" s="53"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="61"/>
       <c r="G209" s="4"/>
       <c r="H209" s="11"/>
-      <c r="I209" s="53"/>
-      <c r="J209" s="54"/>
-      <c r="K209" s="53"/>
-      <c r="L209" s="54"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="52"/>
+      <c r="K209" s="51"/>
+      <c r="L209" s="52"/>
       <c r="M209" s="3"/>
       <c r="N209" s="2"/>
     </row>
-    <row r="210" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A210" s="69"/>
-      <c r="B210" s="69"/>
+    <row r="210" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A210" s="67"/>
+      <c r="B210" s="67"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="50"/>
-      <c r="F210" s="70"/>
+      <c r="D210" s="53"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="68"/>
       <c r="G210" s="4"/>
       <c r="H210" s="11"/>
-      <c r="I210" s="53"/>
-      <c r="J210" s="54"/>
-      <c r="K210" s="53"/>
-      <c r="L210" s="54"/>
+      <c r="I210" s="51"/>
+      <c r="J210" s="52"/>
+      <c r="K210" s="51"/>
+      <c r="L210" s="52"/>
       <c r="M210" s="3"/>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A211" s="69"/>
-      <c r="B211" s="69"/>
+    <row r="211" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A211" s="67"/>
+      <c r="B211" s="67"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="55"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="70"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="68"/>
       <c r="G211" s="4"/>
       <c r="H211" s="11"/>
-      <c r="I211" s="53"/>
-      <c r="J211" s="54"/>
-      <c r="K211" s="53"/>
-      <c r="L211" s="54"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="52"/>
+      <c r="K211" s="51"/>
+      <c r="L211" s="52"/>
       <c r="M211" s="3"/>
       <c r="N211" s="2"/>
     </row>
-    <row r="212" spans="1:14" s="68" customFormat="1" ht="13">
-      <c r="A212" s="69"/>
+    <row r="212" spans="1:14" s="66" customFormat="1" ht="13">
+      <c r="A212" s="67"/>
       <c r="B212" s="8"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="50"/>
-      <c r="F212" s="63"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="61"/>
       <c r="G212" s="4"/>
       <c r="H212" s="11"/>
-      <c r="I212" s="53"/>
-      <c r="J212" s="54"/>
-      <c r="K212" s="53"/>
-      <c r="L212" s="54"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="52"/>
+      <c r="K212" s="51"/>
+      <c r="L212" s="52"/>
       <c r="M212" s="3"/>
       <c r="N212" s="2"/>
     </row>
-    <row r="213" spans="1:14" s="68" customFormat="1">
+    <row r="213" spans="1:14" s="66" customFormat="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
-      <c r="D213" s="55"/>
-      <c r="E213" s="50"/>
-      <c r="F213" s="63"/>
+      <c r="D213" s="53"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="61"/>
       <c r="G213" s="4"/>
       <c r="H213" s="11"/>
-      <c r="I213" s="53"/>
-      <c r="J213" s="54"/>
-      <c r="K213" s="53"/>
-      <c r="L213" s="54"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="52"/>
+      <c r="K213" s="51"/>
+      <c r="L213" s="52"/>
       <c r="M213" s="3"/>
-      <c r="N213" s="72"/>
-    </row>
-    <row r="214" spans="1:14" s="68" customFormat="1">
+      <c r="N213" s="70"/>
+    </row>
+    <row r="214" spans="1:14" s="66" customFormat="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
-      <c r="D214" s="55"/>
-      <c r="E214" s="50"/>
-      <c r="F214" s="63"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="61"/>
       <c r="G214" s="4"/>
       <c r="H214" s="11"/>
-      <c r="I214" s="53"/>
-      <c r="J214" s="54"/>
-      <c r="K214" s="53"/>
-      <c r="L214" s="54"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="52"/>
+      <c r="K214" s="51"/>
+      <c r="L214" s="52"/>
       <c r="M214" s="3"/>
-      <c r="N214" s="72"/>
-    </row>
-    <row r="215" spans="1:14" s="68" customFormat="1">
+      <c r="N214" s="70"/>
+    </row>
+    <row r="215" spans="1:14" s="66" customFormat="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
-      <c r="D215" s="55"/>
-      <c r="E215" s="50"/>
-      <c r="F215" s="63"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="61"/>
       <c r="G215" s="4"/>
       <c r="H215" s="11"/>
-      <c r="I215" s="53"/>
-      <c r="J215" s="54"/>
-      <c r="K215" s="53"/>
-      <c r="L215" s="54"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="52"/>
+      <c r="K215" s="51"/>
+      <c r="L215" s="52"/>
       <c r="M215" s="3"/>
-      <c r="N215" s="72"/>
-    </row>
-    <row r="216" spans="1:14" s="68" customFormat="1">
+      <c r="N215" s="70"/>
+    </row>
+    <row r="216" spans="1:14" s="66" customFormat="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
-      <c r="D216" s="55"/>
-      <c r="E216" s="50"/>
-      <c r="F216" s="63"/>
+      <c r="D216" s="53"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="61"/>
       <c r="G216" s="4"/>
       <c r="H216" s="11"/>
-      <c r="I216" s="53"/>
-      <c r="J216" s="54"/>
-      <c r="K216" s="53"/>
-      <c r="L216" s="54"/>
+      <c r="I216" s="51"/>
+      <c r="J216" s="52"/>
+      <c r="K216" s="51"/>
+      <c r="L216" s="52"/>
       <c r="M216" s="3"/>
-      <c r="N216" s="72"/>
-    </row>
-    <row r="217" spans="1:14" s="68" customFormat="1">
+      <c r="N216" s="70"/>
+    </row>
+    <row r="217" spans="1:14" s="66" customFormat="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
-      <c r="D217" s="55"/>
-      <c r="E217" s="50"/>
-      <c r="F217" s="63"/>
+      <c r="D217" s="53"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="61"/>
       <c r="G217" s="4"/>
       <c r="H217" s="11"/>
-      <c r="I217" s="53"/>
-      <c r="J217" s="54"/>
-      <c r="K217" s="53"/>
-      <c r="L217" s="54"/>
+      <c r="I217" s="51"/>
+      <c r="J217" s="52"/>
+      <c r="K217" s="51"/>
+      <c r="L217" s="52"/>
       <c r="M217" s="3"/>
-      <c r="N217" s="72"/>
-    </row>
-    <row r="218" spans="1:14" s="68" customFormat="1">
+      <c r="N217" s="70"/>
+    </row>
+    <row r="218" spans="1:14" s="66" customFormat="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="50"/>
-      <c r="F218" s="63"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="61"/>
       <c r="G218" s="4"/>
       <c r="H218" s="11"/>
-      <c r="I218" s="53"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="53"/>
-      <c r="L218" s="54"/>
+      <c r="I218" s="51"/>
+      <c r="J218" s="52"/>
+      <c r="K218" s="51"/>
+      <c r="L218" s="52"/>
       <c r="M218" s="3"/>
-      <c r="N218" s="72"/>
-    </row>
-    <row r="219" spans="1:14" s="68" customFormat="1" ht="13">
+      <c r="N218" s="70"/>
+    </row>
+    <row r="219" spans="1:14" s="66" customFormat="1" ht="13">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
-      <c r="C219" s="73"/>
-      <c r="D219" s="74"/>
-      <c r="E219" s="50"/>
-      <c r="F219" s="63"/>
+      <c r="C219" s="71"/>
+      <c r="D219" s="72"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="61"/>
       <c r="G219" s="4"/>
       <c r="H219" s="11"/>
-      <c r="I219" s="53"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="53"/>
-      <c r="L219" s="54"/>
+      <c r="I219" s="51"/>
+      <c r="J219" s="52"/>
+      <c r="K219" s="51"/>
+      <c r="L219" s="52"/>
       <c r="M219" s="3"/>
       <c r="N219" s="9"/>
     </row>
-    <row r="220" spans="1:14" s="68" customFormat="1">
+    <row r="220" spans="1:14" s="66" customFormat="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
-      <c r="D220" s="50"/>
+      <c r="D220" s="48"/>
       <c r="E220" s="9"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="11"/>
-      <c r="I220" s="53"/>
-      <c r="J220" s="54"/>
-      <c r="K220" s="53"/>
-      <c r="L220" s="54"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="52"/>
+      <c r="K220" s="51"/>
+      <c r="L220" s="52"/>
       <c r="M220" s="3"/>
-      <c r="N220" s="72"/>
-    </row>
-    <row r="221" spans="1:14" s="68" customFormat="1">
+      <c r="N220" s="70"/>
+    </row>
+    <row r="221" spans="1:14" s="66" customFormat="1">
       <c r="A221" s="8"/>
-      <c r="B221" s="69"/>
+      <c r="B221" s="67"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="11"/>
-      <c r="I221" s="53"/>
-      <c r="J221" s="54"/>
-      <c r="K221" s="53"/>
-      <c r="L221" s="54"/>
+      <c r="I221" s="51"/>
+      <c r="J221" s="52"/>
+      <c r="K221" s="51"/>
+      <c r="L221" s="52"/>
       <c r="M221" s="3"/>
-      <c r="N221" s="72"/>
-    </row>
-    <row r="222" spans="1:14" s="68" customFormat="1">
+      <c r="N221" s="70"/>
+    </row>
+    <row r="222" spans="1:14" s="66" customFormat="1">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
@@ -5079,14 +5080,14 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="11"/>
-      <c r="I222" s="53"/>
-      <c r="J222" s="54"/>
-      <c r="K222" s="53"/>
-      <c r="L222" s="54"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="52"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="52"/>
       <c r="M222" s="3"/>
-      <c r="N222" s="72"/>
-    </row>
-    <row r="223" spans="1:14" s="68" customFormat="1">
+      <c r="N222" s="70"/>
+    </row>
+    <row r="223" spans="1:14" s="66" customFormat="1">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -5095,14 +5096,14 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="11"/>
-      <c r="I223" s="53"/>
-      <c r="J223" s="54"/>
-      <c r="K223" s="53"/>
-      <c r="L223" s="54"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="52"/>
+      <c r="K223" s="51"/>
+      <c r="L223" s="52"/>
       <c r="M223" s="3"/>
-      <c r="N223" s="72"/>
-    </row>
-    <row r="224" spans="1:14" s="68" customFormat="1">
+      <c r="N223" s="70"/>
+    </row>
+    <row r="224" spans="1:14" s="66" customFormat="1">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
@@ -5111,14 +5112,14 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="11"/>
-      <c r="I224" s="53"/>
-      <c r="J224" s="54"/>
-      <c r="K224" s="53"/>
-      <c r="L224" s="54"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="52"/>
+      <c r="K224" s="51"/>
+      <c r="L224" s="52"/>
       <c r="M224" s="3"/>
-      <c r="N224" s="72"/>
-    </row>
-    <row r="225" spans="1:14" s="68" customFormat="1">
+      <c r="N224" s="70"/>
+    </row>
+    <row r="225" spans="1:14" s="66" customFormat="1">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
@@ -5127,26 +5128,26 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="11"/>
-      <c r="I225" s="53"/>
-      <c r="J225" s="54"/>
-      <c r="K225" s="53"/>
-      <c r="L225" s="54"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="52"/>
+      <c r="K225" s="51"/>
+      <c r="L225" s="52"/>
       <c r="M225" s="3"/>
-      <c r="N225" s="72"/>
+      <c r="N225" s="70"/>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
-      <c r="D226" s="55"/>
+      <c r="D226" s="53"/>
       <c r="E226" s="9"/>
       <c r="F226" s="2"/>
       <c r="G226" s="10"/>
-      <c r="H226" s="52"/>
-      <c r="I226" s="53"/>
-      <c r="J226" s="54"/>
-      <c r="K226" s="53"/>
-      <c r="L226" s="54"/>
+      <c r="H226" s="50"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="52"/>
+      <c r="K226" s="51"/>
+      <c r="L226" s="52"/>
       <c r="M226" s="3"/>
       <c r="N226" s="2"/>
     </row>
@@ -5154,15 +5155,15 @@
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
-      <c r="D227" s="55"/>
+      <c r="D227" s="53"/>
       <c r="E227" s="9"/>
       <c r="F227" s="2"/>
       <c r="G227" s="10"/>
-      <c r="H227" s="52"/>
-      <c r="I227" s="53"/>
-      <c r="J227" s="54"/>
-      <c r="K227" s="53"/>
-      <c r="L227" s="54"/>
+      <c r="H227" s="50"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="52"/>
+      <c r="K227" s="51"/>
+      <c r="L227" s="52"/>
       <c r="M227" s="3"/>
       <c r="N227" s="2"/>
     </row>
@@ -5174,11 +5175,11 @@
       <c r="E228" s="9"/>
       <c r="F228" s="4"/>
       <c r="G228" s="10"/>
-      <c r="H228" s="52"/>
-      <c r="I228" s="53"/>
-      <c r="J228" s="54"/>
-      <c r="K228" s="53"/>
-      <c r="L228" s="54"/>
+      <c r="H228" s="50"/>
+      <c r="I228" s="51"/>
+      <c r="J228" s="52"/>
+      <c r="K228" s="51"/>
+      <c r="L228" s="52"/>
       <c r="M228" s="3"/>
       <c r="N228" s="2"/>
     </row>
@@ -5186,197 +5187,333 @@
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
-      <c r="D229" s="55"/>
-      <c r="E229" s="75"/>
+      <c r="D229" s="53"/>
+      <c r="E229" s="73"/>
       <c r="F229" s="2"/>
       <c r="G229" s="10"/>
-      <c r="H229" s="52"/>
-      <c r="I229" s="53"/>
-      <c r="J229" s="54"/>
-      <c r="K229" s="53"/>
-      <c r="L229" s="54"/>
+      <c r="H229" s="50"/>
+      <c r="I229" s="51"/>
+      <c r="J229" s="52"/>
+      <c r="K229" s="51"/>
+      <c r="L229" s="52"/>
       <c r="M229" s="3"/>
       <c r="N229" s="2"/>
     </row>
-    <row r="230" spans="1:14" s="68" customFormat="1">
+    <row r="230" spans="1:14" s="66" customFormat="1">
       <c r="A230" s="8"/>
-      <c r="B230" s="69"/>
+      <c r="B230" s="67"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="11"/>
-      <c r="I230" s="53"/>
-      <c r="J230" s="54"/>
+      <c r="I230" s="51"/>
+      <c r="J230" s="52"/>
       <c r="K230" s="3"/>
-      <c r="L230" s="54"/>
+      <c r="L230" s="52"/>
       <c r="M230" s="3"/>
-      <c r="N230" s="72"/>
+      <c r="N230" s="70"/>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="50" t="s">
+      <c r="C231" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D231" s="76"/>
-      <c r="E231" s="50"/>
+      <c r="D231" s="74"/>
+      <c r="E231" s="48"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
-      <c r="H231" s="52"/>
+      <c r="H231" s="50"/>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="77">
+      <c r="M231" s="75">
         <f>ROUND(SUM(M10:M230),0)</f>
         <v>0</v>
       </c>
       <c r="N231" s="5"/>
     </row>
     <row r="232" spans="1:14">
-      <c r="C232" s="22"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="38"/>
-      <c r="G232" s="38"/>
-      <c r="H232" s="78"/>
-      <c r="I232" s="79"/>
-      <c r="J232" s="79"/>
-      <c r="K232" s="79"/>
-      <c r="L232" s="38"/>
-      <c r="M232" s="80"/>
-      <c r="N232" s="16"/>
+      <c r="A232" s="87"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="90"/>
+      <c r="D232" s="89"/>
+      <c r="E232" s="90"/>
+      <c r="F232" s="88"/>
+      <c r="G232" s="88"/>
+      <c r="H232" s="91"/>
+      <c r="I232" s="92"/>
+      <c r="J232" s="92"/>
+      <c r="K232" s="92"/>
+      <c r="L232" s="88"/>
+      <c r="M232" s="93"/>
+      <c r="N232" s="88"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="C233" s="35"/>
-      <c r="D233" s="36"/>
-      <c r="F233" s="81"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="16"/>
+      <c r="A233" s="87"/>
+      <c r="B233" s="87"/>
+      <c r="C233" s="88"/>
+      <c r="D233" s="89"/>
+      <c r="E233" s="90"/>
+      <c r="F233" s="88"/>
+      <c r="G233" s="88"/>
+      <c r="H233" s="91"/>
+      <c r="I233" s="92"/>
+      <c r="J233" s="92"/>
+      <c r="K233" s="92"/>
+      <c r="L233" s="88"/>
+      <c r="M233" s="94"/>
+      <c r="N233" s="88"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="C234" s="35"/>
-      <c r="D234" s="36"/>
-      <c r="F234" s="82"/>
-      <c r="M234" s="83"/>
-      <c r="N234" s="16"/>
+      <c r="A234" s="87"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="88"/>
+      <c r="D234" s="89"/>
+      <c r="E234" s="90"/>
+      <c r="F234" s="88"/>
+      <c r="G234" s="88"/>
+      <c r="H234" s="91"/>
+      <c r="I234" s="92"/>
+      <c r="J234" s="92"/>
+      <c r="K234" s="92"/>
+      <c r="L234" s="88"/>
+      <c r="M234" s="94"/>
+      <c r="N234" s="88"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="C235" s="13"/>
-      <c r="D235" s="14"/>
-      <c r="F235" s="81"/>
-      <c r="H235" s="84"/>
-      <c r="M235" s="83"/>
-      <c r="N235" s="35"/>
+      <c r="A235" s="87"/>
+      <c r="B235" s="87"/>
+      <c r="C235" s="88"/>
+      <c r="D235" s="89"/>
+      <c r="E235" s="90"/>
+      <c r="F235" s="88"/>
+      <c r="G235" s="88"/>
+      <c r="H235" s="93"/>
+      <c r="I235" s="92"/>
+      <c r="J235" s="92"/>
+      <c r="K235" s="92"/>
+      <c r="L235" s="88"/>
+      <c r="M235" s="94"/>
+      <c r="N235" s="88"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="C236" s="85"/>
-      <c r="D236" s="86"/>
-      <c r="E236" s="68"/>
-      <c r="F236" s="36"/>
-      <c r="G236" s="36"/>
-      <c r="H236" s="36"/>
-      <c r="I236" s="36"/>
-      <c r="J236" s="36"/>
-      <c r="K236" s="36"/>
-      <c r="L236" s="36"/>
-      <c r="M236" s="36"/>
-      <c r="N236" s="38"/>
+      <c r="A236" s="87"/>
+      <c r="B236" s="87"/>
+      <c r="C236" s="95"/>
+      <c r="D236" s="96"/>
+      <c r="E236" s="90"/>
+      <c r="F236" s="89"/>
+      <c r="G236" s="89"/>
+      <c r="H236" s="89"/>
+      <c r="I236" s="89"/>
+      <c r="J236" s="89"/>
+      <c r="K236" s="89"/>
+      <c r="L236" s="89"/>
+      <c r="M236" s="89"/>
+      <c r="N236" s="88"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="C237" s="68"/>
-      <c r="D237" s="44"/>
+      <c r="A237" s="87"/>
+      <c r="B237" s="87"/>
+      <c r="C237" s="90"/>
+      <c r="D237" s="91"/>
       <c r="E237" s="97"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="13"/>
-      <c r="N237" s="13"/>
+      <c r="F237" s="92"/>
+      <c r="G237" s="92"/>
+      <c r="H237" s="88"/>
+      <c r="I237" s="88"/>
+      <c r="J237" s="92"/>
+      <c r="K237" s="92"/>
+      <c r="L237" s="88"/>
+      <c r="M237" s="98"/>
+      <c r="N237" s="88"/>
     </row>
     <row r="238" spans="1:14" s="16" customFormat="1">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="85"/>
-      <c r="D238" s="86"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="81"/>
-      <c r="H238" s="44"/>
-      <c r="I238" s="17"/>
-      <c r="J238" s="17"/>
-      <c r="K238" s="17"/>
-      <c r="M238" s="83"/>
-      <c r="N238" s="46"/>
+      <c r="A238" s="87"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="95"/>
+      <c r="D238" s="96"/>
+      <c r="E238" s="90"/>
+      <c r="F238" s="88"/>
+      <c r="G238" s="88"/>
+      <c r="H238" s="91"/>
+      <c r="I238" s="92"/>
+      <c r="J238" s="92"/>
+      <c r="K238" s="92"/>
+      <c r="L238" s="88"/>
+      <c r="M238" s="94"/>
+      <c r="N238" s="87"/>
     </row>
     <row r="239" spans="1:14" s="16" customFormat="1">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="42"/>
-      <c r="D239" s="43"/>
-      <c r="E239" s="24"/>
-      <c r="F239" s="81"/>
-      <c r="H239" s="44"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="17"/>
-      <c r="M239" s="45"/>
-      <c r="N239" s="46"/>
+      <c r="A239" s="87"/>
+      <c r="B239" s="87"/>
+      <c r="C239" s="87"/>
+      <c r="D239" s="99"/>
+      <c r="E239" s="90"/>
+      <c r="F239" s="88"/>
+      <c r="G239" s="88"/>
+      <c r="H239" s="91"/>
+      <c r="I239" s="92"/>
+      <c r="J239" s="92"/>
+      <c r="K239" s="92"/>
+      <c r="L239" s="88"/>
+      <c r="M239" s="98"/>
+      <c r="N239" s="87"/>
     </row>
     <row r="240" spans="1:14" s="16" customFormat="1">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="42"/>
-      <c r="D240" s="43"/>
-      <c r="E240" s="24"/>
-      <c r="F240" s="81"/>
-      <c r="H240" s="44"/>
-      <c r="I240" s="17"/>
-      <c r="J240" s="17"/>
-      <c r="K240" s="17"/>
-      <c r="M240" s="45"/>
-      <c r="N240" s="46"/>
+      <c r="A240" s="87"/>
+      <c r="B240" s="87"/>
+      <c r="C240" s="87"/>
+      <c r="D240" s="99"/>
+      <c r="E240" s="90"/>
+      <c r="F240" s="88"/>
+      <c r="G240" s="88"/>
+      <c r="H240" s="91"/>
+      <c r="I240" s="92"/>
+      <c r="J240" s="92"/>
+      <c r="K240" s="92"/>
+      <c r="L240" s="88"/>
+      <c r="M240" s="98"/>
+      <c r="N240" s="87"/>
     </row>
     <row r="241" spans="1:14" s="16" customFormat="1">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="42"/>
-      <c r="D241" s="43"/>
-      <c r="E241" s="24"/>
-      <c r="F241" s="81"/>
-      <c r="H241" s="44"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="17"/>
-      <c r="K241" s="17"/>
-      <c r="M241" s="45"/>
-      <c r="N241" s="46"/>
+      <c r="A241" s="87"/>
+      <c r="B241" s="87"/>
+      <c r="C241" s="87"/>
+      <c r="D241" s="99"/>
+      <c r="E241" s="90"/>
+      <c r="F241" s="88"/>
+      <c r="G241" s="88"/>
+      <c r="H241" s="91"/>
+      <c r="I241" s="92"/>
+      <c r="J241" s="92"/>
+      <c r="K241" s="92"/>
+      <c r="L241" s="88"/>
+      <c r="M241" s="98"/>
+      <c r="N241" s="87"/>
     </row>
     <row r="242" spans="1:14">
-      <c r="F242" s="81"/>
+      <c r="A242" s="87"/>
+      <c r="B242" s="87"/>
+      <c r="C242" s="87"/>
+      <c r="D242" s="99"/>
+      <c r="E242" s="90"/>
+      <c r="F242" s="88"/>
+      <c r="G242" s="88"/>
+      <c r="H242" s="91"/>
+      <c r="I242" s="92"/>
+      <c r="J242" s="92"/>
+      <c r="K242" s="92"/>
+      <c r="L242" s="88"/>
+      <c r="M242" s="98"/>
+      <c r="N242" s="87"/>
     </row>
     <row r="243" spans="1:14">
-      <c r="F243" s="81"/>
+      <c r="A243" s="87"/>
+      <c r="B243" s="87"/>
+      <c r="C243" s="87"/>
+      <c r="D243" s="99"/>
+      <c r="E243" s="90"/>
+      <c r="F243" s="88"/>
+      <c r="G243" s="88"/>
+      <c r="H243" s="91"/>
+      <c r="I243" s="92"/>
+      <c r="J243" s="92"/>
+      <c r="K243" s="92"/>
+      <c r="L243" s="88"/>
+      <c r="M243" s="98"/>
+      <c r="N243" s="87"/>
     </row>
     <row r="244" spans="1:14" s="16" customFormat="1">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="42"/>
-      <c r="D244" s="43"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="81"/>
-      <c r="H244" s="44"/>
-      <c r="I244" s="17"/>
-      <c r="J244" s="17"/>
-      <c r="K244" s="17"/>
-      <c r="M244" s="45"/>
-      <c r="N244" s="46"/>
+      <c r="A244" s="87"/>
+      <c r="B244" s="87"/>
+      <c r="C244" s="87"/>
+      <c r="D244" s="99"/>
+      <c r="E244" s="90"/>
+      <c r="F244" s="88"/>
+      <c r="G244" s="88"/>
+      <c r="H244" s="91"/>
+      <c r="I244" s="92"/>
+      <c r="J244" s="92"/>
+      <c r="K244" s="92"/>
+      <c r="L244" s="88"/>
+      <c r="M244" s="98"/>
+      <c r="N244" s="87"/>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="87"/>
+      <c r="B245" s="87"/>
+      <c r="C245" s="87"/>
+      <c r="D245" s="99"/>
+      <c r="E245" s="90"/>
+      <c r="F245" s="88"/>
+      <c r="G245" s="88"/>
+      <c r="H245" s="91"/>
+      <c r="I245" s="92"/>
+      <c r="J245" s="92"/>
+      <c r="K245" s="92"/>
+      <c r="L245" s="88"/>
+      <c r="M245" s="98"/>
+      <c r="N245" s="87"/>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="87"/>
+      <c r="B246" s="87"/>
+      <c r="C246" s="87"/>
+      <c r="D246" s="99"/>
+      <c r="E246" s="90"/>
+      <c r="F246" s="88"/>
+      <c r="G246" s="88"/>
+      <c r="H246" s="91"/>
+      <c r="I246" s="92"/>
+      <c r="J246" s="92"/>
+      <c r="K246" s="92"/>
+      <c r="L246" s="88"/>
+      <c r="M246" s="98"/>
+      <c r="N246" s="87"/>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="87"/>
+      <c r="B247" s="87"/>
+      <c r="C247" s="87"/>
+      <c r="D247" s="99"/>
+      <c r="E247" s="90"/>
+      <c r="F247" s="88"/>
+      <c r="G247" s="88"/>
+      <c r="H247" s="91"/>
+      <c r="I247" s="92"/>
+      <c r="J247" s="92"/>
+      <c r="K247" s="92"/>
+      <c r="L247" s="88"/>
+      <c r="M247" s="98"/>
+      <c r="N247" s="87"/>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="87"/>
+      <c r="B248" s="87"/>
+      <c r="C248" s="87"/>
+      <c r="D248" s="99"/>
+      <c r="E248" s="90"/>
+      <c r="F248" s="88"/>
+      <c r="G248" s="88"/>
+      <c r="H248" s="91"/>
+      <c r="I248" s="92"/>
+      <c r="J248" s="92"/>
+      <c r="K248" s="92"/>
+      <c r="L248" s="88"/>
+      <c r="M248" s="98"/>
+      <c r="N248" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
     <mergeCell ref="I5:N5"/>
-    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="A188">
     <cfRule type="duplicateValues" dxfId="16" priority="11" stopIfTrue="1"/>

--- a/media/samohvalov_download_fiz.xlsx
+++ b/media/samohvalov_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D1641-603D-264C-B8D3-099F14A3A0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B57D8B4-05C8-5745-A4E9-2F5DADCC70B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Дата подключения</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>№ объекта</t>
-  </si>
-  <si>
-    <t>Итого:</t>
   </si>
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Адрес</t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t>Наименование клиента</t>
@@ -929,6 +923,45 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,45 +970,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1478,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232:N248"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -1504,7 +1498,7 @@
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="15"/>
@@ -1512,12 +1506,12 @@
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
       <c r="I1" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="M1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="21"/>
     </row>
@@ -1525,40 +1519,40 @@
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="86" t="s">
-        <v>6</v>
+      <c r="I2" s="99" t="s">
+        <v>5</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="83"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="86" t="s">
-        <v>7</v>
+      <c r="I3" s="99" t="s">
+        <v>6</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="19">
@@ -1582,19 +1576,19 @@
       <c r="B5" s="12"/>
       <c r="C5" s="31"/>
       <c r="D5" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="84" t="s">
-        <v>8</v>
+      <c r="I5" s="97" t="s">
+        <v>7</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
     </row>
     <row r="6" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A6" s="12"/>
@@ -1613,70 +1607,63 @@
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="A7" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="M8" s="43">
-        <v>31</v>
-      </c>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
     </row>
     <row r="9" spans="1:14" s="45" customFormat="1" ht="112">
       <c r="A9" s="76" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="81" t="s">
+      <c r="G9" s="76" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="77" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="76" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N9" s="76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1">
@@ -5218,9 +5205,7 @@
     <row r="231" spans="1:14">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="48" t="s">
-        <v>3</v>
-      </c>
+      <c r="C231" s="48"/>
       <c r="D231" s="74"/>
       <c r="E231" s="48"/>
       <c r="F231" s="4"/>
@@ -5230,283 +5215,280 @@
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="75">
-        <f>ROUND(SUM(M10:M230),0)</f>
-        <v>0</v>
-      </c>
+      <c r="M231" s="75"/>
       <c r="N231" s="5"/>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="87"/>
-      <c r="B232" s="87"/>
-      <c r="C232" s="90"/>
-      <c r="D232" s="89"/>
-      <c r="E232" s="90"/>
-      <c r="F232" s="88"/>
-      <c r="G232" s="88"/>
-      <c r="H232" s="91"/>
-      <c r="I232" s="92"/>
-      <c r="J232" s="92"/>
-      <c r="K232" s="92"/>
-      <c r="L232" s="88"/>
-      <c r="M232" s="93"/>
-      <c r="N232" s="88"/>
+      <c r="A232" s="84"/>
+      <c r="B232" s="84"/>
+      <c r="C232" s="87"/>
+      <c r="D232" s="86"/>
+      <c r="E232" s="87"/>
+      <c r="F232" s="85"/>
+      <c r="G232" s="85"/>
+      <c r="H232" s="88"/>
+      <c r="I232" s="89"/>
+      <c r="J232" s="89"/>
+      <c r="K232" s="89"/>
+      <c r="L232" s="85"/>
+      <c r="M232" s="90"/>
+      <c r="N232" s="85"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="87"/>
-      <c r="B233" s="87"/>
-      <c r="C233" s="88"/>
-      <c r="D233" s="89"/>
-      <c r="E233" s="90"/>
-      <c r="F233" s="88"/>
-      <c r="G233" s="88"/>
-      <c r="H233" s="91"/>
-      <c r="I233" s="92"/>
-      <c r="J233" s="92"/>
-      <c r="K233" s="92"/>
-      <c r="L233" s="88"/>
-      <c r="M233" s="94"/>
-      <c r="N233" s="88"/>
+      <c r="A233" s="84"/>
+      <c r="B233" s="84"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="86"/>
+      <c r="E233" s="87"/>
+      <c r="F233" s="85"/>
+      <c r="G233" s="85"/>
+      <c r="H233" s="88"/>
+      <c r="I233" s="89"/>
+      <c r="J233" s="89"/>
+      <c r="K233" s="89"/>
+      <c r="L233" s="85"/>
+      <c r="M233" s="91"/>
+      <c r="N233" s="85"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="87"/>
-      <c r="B234" s="87"/>
-      <c r="C234" s="88"/>
-      <c r="D234" s="89"/>
-      <c r="E234" s="90"/>
-      <c r="F234" s="88"/>
-      <c r="G234" s="88"/>
-      <c r="H234" s="91"/>
-      <c r="I234" s="92"/>
-      <c r="J234" s="92"/>
-      <c r="K234" s="92"/>
-      <c r="L234" s="88"/>
-      <c r="M234" s="94"/>
-      <c r="N234" s="88"/>
+      <c r="A234" s="84"/>
+      <c r="B234" s="84"/>
+      <c r="C234" s="85"/>
+      <c r="D234" s="86"/>
+      <c r="E234" s="87"/>
+      <c r="F234" s="85"/>
+      <c r="G234" s="85"/>
+      <c r="H234" s="88"/>
+      <c r="I234" s="89"/>
+      <c r="J234" s="89"/>
+      <c r="K234" s="89"/>
+      <c r="L234" s="85"/>
+      <c r="M234" s="91"/>
+      <c r="N234" s="85"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="87"/>
-      <c r="B235" s="87"/>
-      <c r="C235" s="88"/>
-      <c r="D235" s="89"/>
-      <c r="E235" s="90"/>
-      <c r="F235" s="88"/>
-      <c r="G235" s="88"/>
-      <c r="H235" s="93"/>
-      <c r="I235" s="92"/>
-      <c r="J235" s="92"/>
-      <c r="K235" s="92"/>
-      <c r="L235" s="88"/>
-      <c r="M235" s="94"/>
-      <c r="N235" s="88"/>
+      <c r="A235" s="84"/>
+      <c r="B235" s="84"/>
+      <c r="C235" s="85"/>
+      <c r="D235" s="86"/>
+      <c r="E235" s="87"/>
+      <c r="F235" s="85"/>
+      <c r="G235" s="85"/>
+      <c r="H235" s="90"/>
+      <c r="I235" s="89"/>
+      <c r="J235" s="89"/>
+      <c r="K235" s="89"/>
+      <c r="L235" s="85"/>
+      <c r="M235" s="91"/>
+      <c r="N235" s="85"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="87"/>
-      <c r="B236" s="87"/>
-      <c r="C236" s="95"/>
-      <c r="D236" s="96"/>
-      <c r="E236" s="90"/>
-      <c r="F236" s="89"/>
-      <c r="G236" s="89"/>
-      <c r="H236" s="89"/>
-      <c r="I236" s="89"/>
-      <c r="J236" s="89"/>
-      <c r="K236" s="89"/>
-      <c r="L236" s="89"/>
-      <c r="M236" s="89"/>
-      <c r="N236" s="88"/>
+      <c r="A236" s="84"/>
+      <c r="B236" s="84"/>
+      <c r="C236" s="92"/>
+      <c r="D236" s="93"/>
+      <c r="E236" s="87"/>
+      <c r="F236" s="86"/>
+      <c r="G236" s="86"/>
+      <c r="H236" s="86"/>
+      <c r="I236" s="86"/>
+      <c r="J236" s="86"/>
+      <c r="K236" s="86"/>
+      <c r="L236" s="86"/>
+      <c r="M236" s="86"/>
+      <c r="N236" s="85"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="87"/>
-      <c r="B237" s="87"/>
-      <c r="C237" s="90"/>
-      <c r="D237" s="91"/>
-      <c r="E237" s="97"/>
-      <c r="F237" s="92"/>
-      <c r="G237" s="92"/>
-      <c r="H237" s="88"/>
-      <c r="I237" s="88"/>
-      <c r="J237" s="92"/>
-      <c r="K237" s="92"/>
-      <c r="L237" s="88"/>
-      <c r="M237" s="98"/>
-      <c r="N237" s="88"/>
+      <c r="A237" s="84"/>
+      <c r="B237" s="84"/>
+      <c r="C237" s="87"/>
+      <c r="D237" s="88"/>
+      <c r="E237" s="94"/>
+      <c r="F237" s="89"/>
+      <c r="G237" s="89"/>
+      <c r="H237" s="85"/>
+      <c r="I237" s="85"/>
+      <c r="J237" s="89"/>
+      <c r="K237" s="89"/>
+      <c r="L237" s="85"/>
+      <c r="M237" s="95"/>
+      <c r="N237" s="85"/>
     </row>
     <row r="238" spans="1:14" s="16" customFormat="1">
-      <c r="A238" s="87"/>
-      <c r="B238" s="87"/>
-      <c r="C238" s="95"/>
-      <c r="D238" s="96"/>
-      <c r="E238" s="90"/>
-      <c r="F238" s="88"/>
-      <c r="G238" s="88"/>
-      <c r="H238" s="91"/>
-      <c r="I238" s="92"/>
-      <c r="J238" s="92"/>
-      <c r="K238" s="92"/>
-      <c r="L238" s="88"/>
-      <c r="M238" s="94"/>
-      <c r="N238" s="87"/>
+      <c r="A238" s="84"/>
+      <c r="B238" s="84"/>
+      <c r="C238" s="92"/>
+      <c r="D238" s="93"/>
+      <c r="E238" s="87"/>
+      <c r="F238" s="85"/>
+      <c r="G238" s="85"/>
+      <c r="H238" s="88"/>
+      <c r="I238" s="89"/>
+      <c r="J238" s="89"/>
+      <c r="K238" s="89"/>
+      <c r="L238" s="85"/>
+      <c r="M238" s="91"/>
+      <c r="N238" s="84"/>
     </row>
     <row r="239" spans="1:14" s="16" customFormat="1">
-      <c r="A239" s="87"/>
-      <c r="B239" s="87"/>
-      <c r="C239" s="87"/>
-      <c r="D239" s="99"/>
-      <c r="E239" s="90"/>
-      <c r="F239" s="88"/>
-      <c r="G239" s="88"/>
-      <c r="H239" s="91"/>
-      <c r="I239" s="92"/>
-      <c r="J239" s="92"/>
-      <c r="K239" s="92"/>
-      <c r="L239" s="88"/>
-      <c r="M239" s="98"/>
-      <c r="N239" s="87"/>
+      <c r="A239" s="84"/>
+      <c r="B239" s="84"/>
+      <c r="C239" s="84"/>
+      <c r="D239" s="96"/>
+      <c r="E239" s="87"/>
+      <c r="F239" s="85"/>
+      <c r="G239" s="85"/>
+      <c r="H239" s="88"/>
+      <c r="I239" s="89"/>
+      <c r="J239" s="89"/>
+      <c r="K239" s="89"/>
+      <c r="L239" s="85"/>
+      <c r="M239" s="95"/>
+      <c r="N239" s="84"/>
     </row>
     <row r="240" spans="1:14" s="16" customFormat="1">
-      <c r="A240" s="87"/>
-      <c r="B240" s="87"/>
-      <c r="C240" s="87"/>
-      <c r="D240" s="99"/>
-      <c r="E240" s="90"/>
-      <c r="F240" s="88"/>
-      <c r="G240" s="88"/>
-      <c r="H240" s="91"/>
-      <c r="I240" s="92"/>
-      <c r="J240" s="92"/>
-      <c r="K240" s="92"/>
-      <c r="L240" s="88"/>
-      <c r="M240" s="98"/>
-      <c r="N240" s="87"/>
+      <c r="A240" s="84"/>
+      <c r="B240" s="84"/>
+      <c r="C240" s="84"/>
+      <c r="D240" s="96"/>
+      <c r="E240" s="87"/>
+      <c r="F240" s="85"/>
+      <c r="G240" s="85"/>
+      <c r="H240" s="88"/>
+      <c r="I240" s="89"/>
+      <c r="J240" s="89"/>
+      <c r="K240" s="89"/>
+      <c r="L240" s="85"/>
+      <c r="M240" s="95"/>
+      <c r="N240" s="84"/>
     </row>
     <row r="241" spans="1:14" s="16" customFormat="1">
-      <c r="A241" s="87"/>
-      <c r="B241" s="87"/>
-      <c r="C241" s="87"/>
-      <c r="D241" s="99"/>
-      <c r="E241" s="90"/>
-      <c r="F241" s="88"/>
-      <c r="G241" s="88"/>
-      <c r="H241" s="91"/>
-      <c r="I241" s="92"/>
-      <c r="J241" s="92"/>
-      <c r="K241" s="92"/>
-      <c r="L241" s="88"/>
-      <c r="M241" s="98"/>
-      <c r="N241" s="87"/>
+      <c r="A241" s="84"/>
+      <c r="B241" s="84"/>
+      <c r="C241" s="84"/>
+      <c r="D241" s="96"/>
+      <c r="E241" s="87"/>
+      <c r="F241" s="85"/>
+      <c r="G241" s="85"/>
+      <c r="H241" s="88"/>
+      <c r="I241" s="89"/>
+      <c r="J241" s="89"/>
+      <c r="K241" s="89"/>
+      <c r="L241" s="85"/>
+      <c r="M241" s="95"/>
+      <c r="N241" s="84"/>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="87"/>
-      <c r="B242" s="87"/>
-      <c r="C242" s="87"/>
-      <c r="D242" s="99"/>
-      <c r="E242" s="90"/>
-      <c r="F242" s="88"/>
-      <c r="G242" s="88"/>
-      <c r="H242" s="91"/>
-      <c r="I242" s="92"/>
-      <c r="J242" s="92"/>
-      <c r="K242" s="92"/>
-      <c r="L242" s="88"/>
-      <c r="M242" s="98"/>
-      <c r="N242" s="87"/>
+      <c r="A242" s="84"/>
+      <c r="B242" s="84"/>
+      <c r="C242" s="84"/>
+      <c r="D242" s="96"/>
+      <c r="E242" s="87"/>
+      <c r="F242" s="85"/>
+      <c r="G242" s="85"/>
+      <c r="H242" s="88"/>
+      <c r="I242" s="89"/>
+      <c r="J242" s="89"/>
+      <c r="K242" s="89"/>
+      <c r="L242" s="85"/>
+      <c r="M242" s="95"/>
+      <c r="N242" s="84"/>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="87"/>
-      <c r="B243" s="87"/>
-      <c r="C243" s="87"/>
-      <c r="D243" s="99"/>
-      <c r="E243" s="90"/>
-      <c r="F243" s="88"/>
-      <c r="G243" s="88"/>
-      <c r="H243" s="91"/>
-      <c r="I243" s="92"/>
-      <c r="J243" s="92"/>
-      <c r="K243" s="92"/>
-      <c r="L243" s="88"/>
-      <c r="M243" s="98"/>
-      <c r="N243" s="87"/>
+      <c r="A243" s="84"/>
+      <c r="B243" s="84"/>
+      <c r="C243" s="84"/>
+      <c r="D243" s="96"/>
+      <c r="E243" s="87"/>
+      <c r="F243" s="85"/>
+      <c r="G243" s="85"/>
+      <c r="H243" s="88"/>
+      <c r="I243" s="89"/>
+      <c r="J243" s="89"/>
+      <c r="K243" s="89"/>
+      <c r="L243" s="85"/>
+      <c r="M243" s="95"/>
+      <c r="N243" s="84"/>
     </row>
     <row r="244" spans="1:14" s="16" customFormat="1">
-      <c r="A244" s="87"/>
-      <c r="B244" s="87"/>
-      <c r="C244" s="87"/>
-      <c r="D244" s="99"/>
-      <c r="E244" s="90"/>
-      <c r="F244" s="88"/>
-      <c r="G244" s="88"/>
-      <c r="H244" s="91"/>
-      <c r="I244" s="92"/>
-      <c r="J244" s="92"/>
-      <c r="K244" s="92"/>
-      <c r="L244" s="88"/>
-      <c r="M244" s="98"/>
-      <c r="N244" s="87"/>
+      <c r="A244" s="84"/>
+      <c r="B244" s="84"/>
+      <c r="C244" s="84"/>
+      <c r="D244" s="96"/>
+      <c r="E244" s="87"/>
+      <c r="F244" s="85"/>
+      <c r="G244" s="85"/>
+      <c r="H244" s="88"/>
+      <c r="I244" s="89"/>
+      <c r="J244" s="89"/>
+      <c r="K244" s="89"/>
+      <c r="L244" s="85"/>
+      <c r="M244" s="95"/>
+      <c r="N244" s="84"/>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="87"/>
-      <c r="B245" s="87"/>
-      <c r="C245" s="87"/>
-      <c r="D245" s="99"/>
-      <c r="E245" s="90"/>
-      <c r="F245" s="88"/>
-      <c r="G245" s="88"/>
-      <c r="H245" s="91"/>
-      <c r="I245" s="92"/>
-      <c r="J245" s="92"/>
-      <c r="K245" s="92"/>
-      <c r="L245" s="88"/>
-      <c r="M245" s="98"/>
-      <c r="N245" s="87"/>
+      <c r="A245" s="84"/>
+      <c r="B245" s="84"/>
+      <c r="C245" s="84"/>
+      <c r="D245" s="96"/>
+      <c r="E245" s="87"/>
+      <c r="F245" s="85"/>
+      <c r="G245" s="85"/>
+      <c r="H245" s="88"/>
+      <c r="I245" s="89"/>
+      <c r="J245" s="89"/>
+      <c r="K245" s="89"/>
+      <c r="L245" s="85"/>
+      <c r="M245" s="95"/>
+      <c r="N245" s="84"/>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="87"/>
-      <c r="B246" s="87"/>
-      <c r="C246" s="87"/>
-      <c r="D246" s="99"/>
-      <c r="E246" s="90"/>
-      <c r="F246" s="88"/>
-      <c r="G246" s="88"/>
-      <c r="H246" s="91"/>
-      <c r="I246" s="92"/>
-      <c r="J246" s="92"/>
-      <c r="K246" s="92"/>
-      <c r="L246" s="88"/>
-      <c r="M246" s="98"/>
-      <c r="N246" s="87"/>
+      <c r="A246" s="84"/>
+      <c r="B246" s="84"/>
+      <c r="C246" s="84"/>
+      <c r="D246" s="96"/>
+      <c r="E246" s="87"/>
+      <c r="F246" s="85"/>
+      <c r="G246" s="85"/>
+      <c r="H246" s="88"/>
+      <c r="I246" s="89"/>
+      <c r="J246" s="89"/>
+      <c r="K246" s="89"/>
+      <c r="L246" s="85"/>
+      <c r="M246" s="95"/>
+      <c r="N246" s="84"/>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="87"/>
-      <c r="B247" s="87"/>
-      <c r="C247" s="87"/>
-      <c r="D247" s="99"/>
-      <c r="E247" s="90"/>
-      <c r="F247" s="88"/>
-      <c r="G247" s="88"/>
-      <c r="H247" s="91"/>
-      <c r="I247" s="92"/>
-      <c r="J247" s="92"/>
-      <c r="K247" s="92"/>
-      <c r="L247" s="88"/>
-      <c r="M247" s="98"/>
-      <c r="N247" s="87"/>
+      <c r="A247" s="84"/>
+      <c r="B247" s="84"/>
+      <c r="C247" s="84"/>
+      <c r="D247" s="96"/>
+      <c r="E247" s="87"/>
+      <c r="F247" s="85"/>
+      <c r="G247" s="85"/>
+      <c r="H247" s="88"/>
+      <c r="I247" s="89"/>
+      <c r="J247" s="89"/>
+      <c r="K247" s="89"/>
+      <c r="L247" s="85"/>
+      <c r="M247" s="95"/>
+      <c r="N247" s="84"/>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="87"/>
-      <c r="B248" s="87"/>
-      <c r="C248" s="87"/>
-      <c r="D248" s="99"/>
-      <c r="E248" s="90"/>
-      <c r="F248" s="88"/>
-      <c r="G248" s="88"/>
-      <c r="H248" s="91"/>
-      <c r="I248" s="92"/>
-      <c r="J248" s="92"/>
-      <c r="K248" s="92"/>
-      <c r="L248" s="88"/>
-      <c r="M248" s="98"/>
-      <c r="N248" s="87"/>
+      <c r="A248" s="84"/>
+      <c r="B248" s="84"/>
+      <c r="C248" s="84"/>
+      <c r="D248" s="96"/>
+      <c r="E248" s="87"/>
+      <c r="F248" s="85"/>
+      <c r="G248" s="85"/>
+      <c r="H248" s="88"/>
+      <c r="I248" s="89"/>
+      <c r="J248" s="89"/>
+      <c r="K248" s="89"/>
+      <c r="L248" s="85"/>
+      <c r="M248" s="95"/>
+      <c r="N248" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
